--- a/tinhtay.xlsx
+++ b/tinhtay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kakac\OneDrive\Desktop\DoAn_MXH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5D6BD4-1D34-4C1E-83FA-0AB57F3D946F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E4E02B-EB1B-4435-9E11-36A82C9E77E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE86B4D3-FC1E-4246-83E0-BAE3CAC0127E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{DE86B4D3-FC1E-4246-83E0-BAE3CAC0127E}"/>
   </bookViews>
   <sheets>
     <sheet name="10Node" sheetId="1" r:id="rId1"/>
@@ -888,7 +888,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -903,10 +903,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -935,21 +931,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -981,6 +962,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1715,7 +1711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749CA0FE-AEF8-4C1E-9477-61FFEAD8387A}">
   <dimension ref="C9:Z69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
@@ -1774,10 +1770,10 @@
       <c r="E13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="19"/>
+      <c r="F13" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="28"/>
       <c r="X13" t="s">
         <v>14</v>
       </c>
@@ -1969,13 +1965,13 @@
       </c>
     </row>
     <row r="23" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>10</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X23" t="s">
@@ -2121,247 +2117,247 @@
       </c>
     </row>
     <row r="36" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="G36" s="23" t="s">
+      <c r="G36" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="H36" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="I36" s="24" t="s">
+      <c r="H36" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J36" s="24" t="s">
+      <c r="J36" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K36" s="24" t="s">
+      <c r="K36" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="L36" s="24" t="s">
+      <c r="L36" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="M36" s="24" t="s">
+      <c r="M36" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="N36" s="24" t="s">
+      <c r="N36" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="O36" s="24" t="s">
+      <c r="O36" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="P36" s="24" t="s">
+      <c r="P36" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="Q36" s="25" t="s">
+      <c r="Q36" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="G37" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="H37" s="24">
-        <v>0</v>
-      </c>
-      <c r="I37" s="27">
-        <v>0</v>
-      </c>
-      <c r="J37" s="27">
-        <v>1</v>
-      </c>
-      <c r="K37" s="27">
-        <v>0</v>
-      </c>
-      <c r="L37" s="27">
-        <v>0</v>
-      </c>
-      <c r="M37" s="27">
-        <v>0</v>
-      </c>
-      <c r="N37" s="27">
-        <v>0</v>
-      </c>
-      <c r="O37" s="27">
-        <v>0</v>
-      </c>
-      <c r="P37" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="28">
+      <c r="G37" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="17">
+        <v>0</v>
+      </c>
+      <c r="I37" s="20">
+        <v>0</v>
+      </c>
+      <c r="J37" s="20">
+        <v>1</v>
+      </c>
+      <c r="K37" s="20">
+        <v>0</v>
+      </c>
+      <c r="L37" s="20">
+        <v>0</v>
+      </c>
+      <c r="M37" s="20">
+        <v>0</v>
+      </c>
+      <c r="N37" s="20">
+        <v>0</v>
+      </c>
+      <c r="O37" s="20">
+        <v>0</v>
+      </c>
+      <c r="P37" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="G38" s="26" t="s">
+      <c r="G38" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H38" s="27">
-        <v>0</v>
-      </c>
-      <c r="I38" s="24">
-        <v>0</v>
-      </c>
-      <c r="J38" s="27">
-        <v>1</v>
-      </c>
-      <c r="K38" s="27">
-        <v>0</v>
-      </c>
-      <c r="L38" s="27">
-        <v>0</v>
-      </c>
-      <c r="M38" s="27">
-        <v>0</v>
-      </c>
-      <c r="N38" s="27">
-        <v>0</v>
-      </c>
-      <c r="O38" s="27">
-        <v>0</v>
-      </c>
-      <c r="P38" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="28">
+      <c r="H38" s="20">
+        <v>0</v>
+      </c>
+      <c r="I38" s="17">
+        <v>0</v>
+      </c>
+      <c r="J38" s="20">
+        <v>1</v>
+      </c>
+      <c r="K38" s="20">
+        <v>0</v>
+      </c>
+      <c r="L38" s="20">
+        <v>0</v>
+      </c>
+      <c r="M38" s="20">
+        <v>0</v>
+      </c>
+      <c r="N38" s="20">
+        <v>0</v>
+      </c>
+      <c r="O38" s="20">
+        <v>0</v>
+      </c>
+      <c r="P38" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="G39" s="26" t="s">
+      <c r="G39" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H39" s="27">
-        <v>1</v>
-      </c>
-      <c r="I39" s="27">
-        <v>1</v>
-      </c>
-      <c r="J39" s="24">
-        <v>0</v>
-      </c>
-      <c r="K39" s="27">
-        <v>1</v>
-      </c>
-      <c r="L39" s="27">
-        <v>1</v>
-      </c>
-      <c r="M39" s="27">
-        <v>1</v>
-      </c>
-      <c r="N39" s="27">
-        <v>1</v>
-      </c>
-      <c r="O39" s="27">
-        <v>1</v>
-      </c>
-      <c r="P39" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="28">
+      <c r="H39" s="20">
+        <v>1</v>
+      </c>
+      <c r="I39" s="20">
+        <v>1</v>
+      </c>
+      <c r="J39" s="17">
+        <v>0</v>
+      </c>
+      <c r="K39" s="20">
+        <v>1</v>
+      </c>
+      <c r="L39" s="20">
+        <v>1</v>
+      </c>
+      <c r="M39" s="20">
+        <v>1</v>
+      </c>
+      <c r="N39" s="20">
+        <v>1</v>
+      </c>
+      <c r="O39" s="20">
+        <v>1</v>
+      </c>
+      <c r="P39" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="G40" s="26" t="s">
+      <c r="G40" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H40" s="27">
-        <v>0</v>
-      </c>
-      <c r="I40" s="27">
-        <v>0</v>
-      </c>
-      <c r="J40" s="27">
-        <v>1</v>
-      </c>
-      <c r="K40" s="24">
-        <v>0</v>
-      </c>
-      <c r="L40" s="27">
-        <v>0</v>
-      </c>
-      <c r="M40" s="27">
-        <v>0</v>
-      </c>
-      <c r="N40" s="27">
-        <v>0</v>
-      </c>
-      <c r="O40" s="27">
-        <v>0</v>
-      </c>
-      <c r="P40" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="28">
+      <c r="H40" s="20">
+        <v>0</v>
+      </c>
+      <c r="I40" s="20">
+        <v>0</v>
+      </c>
+      <c r="J40" s="20">
+        <v>1</v>
+      </c>
+      <c r="K40" s="17">
+        <v>0</v>
+      </c>
+      <c r="L40" s="20">
+        <v>0</v>
+      </c>
+      <c r="M40" s="20">
+        <v>0</v>
+      </c>
+      <c r="N40" s="20">
+        <v>0</v>
+      </c>
+      <c r="O40" s="20">
+        <v>0</v>
+      </c>
+      <c r="P40" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="G41" s="26" t="s">
+      <c r="G41" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="27">
-        <v>0</v>
-      </c>
-      <c r="I41" s="27">
-        <v>0</v>
-      </c>
-      <c r="J41" s="27">
-        <v>1</v>
-      </c>
-      <c r="K41" s="27">
-        <v>0</v>
-      </c>
-      <c r="L41" s="24">
-        <v>0</v>
-      </c>
-      <c r="M41" s="27">
-        <v>0</v>
-      </c>
-      <c r="N41" s="27">
-        <v>1</v>
-      </c>
-      <c r="O41" s="27">
-        <v>0</v>
-      </c>
-      <c r="P41" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="28">
+      <c r="H41" s="20">
+        <v>0</v>
+      </c>
+      <c r="I41" s="20">
+        <v>0</v>
+      </c>
+      <c r="J41" s="20">
+        <v>1</v>
+      </c>
+      <c r="K41" s="20">
+        <v>0</v>
+      </c>
+      <c r="L41" s="17">
+        <v>0</v>
+      </c>
+      <c r="M41" s="20">
+        <v>0</v>
+      </c>
+      <c r="N41" s="20">
+        <v>1</v>
+      </c>
+      <c r="O41" s="20">
+        <v>0</v>
+      </c>
+      <c r="P41" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="G42" s="26" t="s">
+      <c r="G42" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H42" s="27">
-        <v>0</v>
-      </c>
-      <c r="I42" s="27">
-        <v>0</v>
-      </c>
-      <c r="J42" s="27">
-        <v>1</v>
-      </c>
-      <c r="K42" s="27">
-        <v>0</v>
-      </c>
-      <c r="L42" s="27">
-        <v>0</v>
-      </c>
-      <c r="M42" s="24">
-        <v>0</v>
-      </c>
-      <c r="N42" s="27">
-        <v>0</v>
-      </c>
-      <c r="O42" s="27">
-        <v>0</v>
-      </c>
-      <c r="P42" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="28">
+      <c r="H42" s="20">
+        <v>0</v>
+      </c>
+      <c r="I42" s="20">
+        <v>0</v>
+      </c>
+      <c r="J42" s="20">
+        <v>1</v>
+      </c>
+      <c r="K42" s="20">
+        <v>0</v>
+      </c>
+      <c r="L42" s="20">
+        <v>0</v>
+      </c>
+      <c r="M42" s="17">
+        <v>0</v>
+      </c>
+      <c r="N42" s="20">
+        <v>0</v>
+      </c>
+      <c r="O42" s="20">
+        <v>0</v>
+      </c>
+      <c r="P42" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="21">
         <v>1</v>
       </c>
     </row>
@@ -2375,37 +2371,37 @@
       <c r="E43" t="s">
         <v>28</v>
       </c>
-      <c r="G43" s="26" t="s">
+      <c r="G43" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H43" s="27">
-        <v>0</v>
-      </c>
-      <c r="I43" s="27">
-        <v>0</v>
-      </c>
-      <c r="J43" s="27">
-        <v>1</v>
-      </c>
-      <c r="K43" s="27">
-        <v>0</v>
-      </c>
-      <c r="L43" s="27">
-        <v>1</v>
-      </c>
-      <c r="M43" s="27">
-        <v>0</v>
-      </c>
-      <c r="N43" s="24">
-        <v>0</v>
-      </c>
-      <c r="O43" s="27">
-        <v>0</v>
-      </c>
-      <c r="P43" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="28">
+      <c r="H43" s="20">
+        <v>0</v>
+      </c>
+      <c r="I43" s="20">
+        <v>0</v>
+      </c>
+      <c r="J43" s="20">
+        <v>1</v>
+      </c>
+      <c r="K43" s="20">
+        <v>0</v>
+      </c>
+      <c r="L43" s="20">
+        <v>1</v>
+      </c>
+      <c r="M43" s="20">
+        <v>0</v>
+      </c>
+      <c r="N43" s="17">
+        <v>0</v>
+      </c>
+      <c r="O43" s="20">
+        <v>0</v>
+      </c>
+      <c r="P43" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="21">
         <v>1</v>
       </c>
     </row>
@@ -2419,37 +2415,37 @@
       <c r="E44">
         <v>1</v>
       </c>
-      <c r="G44" s="26" t="s">
+      <c r="G44" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H44" s="27">
-        <v>0</v>
-      </c>
-      <c r="I44" s="27">
-        <v>0</v>
-      </c>
-      <c r="J44" s="27">
-        <v>1</v>
-      </c>
-      <c r="K44" s="27">
-        <v>0</v>
-      </c>
-      <c r="L44" s="27">
-        <v>0</v>
-      </c>
-      <c r="M44" s="27">
-        <v>0</v>
-      </c>
-      <c r="N44" s="27">
-        <v>0</v>
-      </c>
-      <c r="O44" s="24">
-        <v>0</v>
-      </c>
-      <c r="P44" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="28">
+      <c r="H44" s="20">
+        <v>0</v>
+      </c>
+      <c r="I44" s="20">
+        <v>0</v>
+      </c>
+      <c r="J44" s="20">
+        <v>1</v>
+      </c>
+      <c r="K44" s="20">
+        <v>0</v>
+      </c>
+      <c r="L44" s="20">
+        <v>0</v>
+      </c>
+      <c r="M44" s="20">
+        <v>0</v>
+      </c>
+      <c r="N44" s="20">
+        <v>0</v>
+      </c>
+      <c r="O44" s="17">
+        <v>0</v>
+      </c>
+      <c r="P44" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="21">
         <v>0</v>
       </c>
     </row>
@@ -2463,37 +2459,37 @@
       <c r="E45">
         <v>1</v>
       </c>
-      <c r="G45" s="26" t="s">
+      <c r="G45" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="27">
-        <v>0</v>
-      </c>
-      <c r="I45" s="27">
-        <v>0</v>
-      </c>
-      <c r="J45" s="27">
-        <v>1</v>
-      </c>
-      <c r="K45" s="27">
-        <v>1</v>
-      </c>
-      <c r="L45" s="27">
-        <v>0</v>
-      </c>
-      <c r="M45" s="27">
-        <v>0</v>
-      </c>
-      <c r="N45" s="27">
-        <v>0</v>
-      </c>
-      <c r="O45" s="27">
-        <v>0</v>
-      </c>
-      <c r="P45" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="28">
+      <c r="H45" s="20">
+        <v>0</v>
+      </c>
+      <c r="I45" s="20">
+        <v>0</v>
+      </c>
+      <c r="J45" s="20">
+        <v>1</v>
+      </c>
+      <c r="K45" s="20">
+        <v>1</v>
+      </c>
+      <c r="L45" s="20">
+        <v>0</v>
+      </c>
+      <c r="M45" s="20">
+        <v>0</v>
+      </c>
+      <c r="N45" s="20">
+        <v>0</v>
+      </c>
+      <c r="O45" s="20">
+        <v>0</v>
+      </c>
+      <c r="P45" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="21">
         <v>0</v>
       </c>
     </row>
@@ -2507,37 +2503,37 @@
       <c r="E46">
         <v>1</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="G46" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="30">
-        <v>0</v>
-      </c>
-      <c r="I46" s="30">
-        <v>0</v>
-      </c>
-      <c r="J46" s="30">
-        <v>1</v>
-      </c>
-      <c r="K46" s="30">
-        <v>0</v>
-      </c>
-      <c r="L46" s="30">
-        <v>0</v>
-      </c>
-      <c r="M46" s="30">
-        <v>1</v>
-      </c>
-      <c r="N46" s="30">
-        <v>1</v>
-      </c>
-      <c r="O46" s="30">
-        <v>0</v>
-      </c>
-      <c r="P46" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="31">
+      <c r="H46" s="23">
+        <v>0</v>
+      </c>
+      <c r="I46" s="23">
+        <v>0</v>
+      </c>
+      <c r="J46" s="23">
+        <v>1</v>
+      </c>
+      <c r="K46" s="23">
+        <v>0</v>
+      </c>
+      <c r="L46" s="23">
+        <v>0</v>
+      </c>
+      <c r="M46" s="23">
+        <v>1</v>
+      </c>
+      <c r="N46" s="23">
+        <v>1</v>
+      </c>
+      <c r="O46" s="23">
+        <v>0</v>
+      </c>
+      <c r="P46" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="24">
         <v>0</v>
       </c>
     </row>
@@ -3231,29 +3227,29 @@
       <c r="M1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="21"/>
-      <c r="R1" s="22" t="s">
+      <c r="P1" s="30"/>
+      <c r="R1" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="S1" s="22"/>
+      <c r="S1" s="31"/>
     </row>
     <row r="2" spans="6:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="8" t="s">
+      <c r="J2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>114</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -3272,14 +3268,14 @@
       </c>
     </row>
     <row r="3" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="J3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="8" t="s">
+      <c r="J3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="9" t="s">
+      <c r="L3" s="6"/>
+      <c r="M3" s="7" t="s">
         <v>111</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -3298,16 +3294,16 @@
       </c>
     </row>
     <row r="4" spans="6:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="8" t="s">
+      <c r="J4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="6" t="s">
         <v>114</v>
       </c>
       <c r="O4" s="1" t="s">
@@ -3326,16 +3322,16 @@
       </c>
     </row>
     <row r="5" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="J5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="8" t="s">
+      <c r="J5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="6" t="s">
         <v>115</v>
       </c>
       <c r="O5" s="1" t="s">
@@ -3354,16 +3350,16 @@
       </c>
     </row>
     <row r="6" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="J6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="8" t="s">
+      <c r="J6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="6" t="s">
         <v>116</v>
       </c>
       <c r="O6" s="1" t="s">
@@ -3382,16 +3378,16 @@
       </c>
     </row>
     <row r="7" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="J7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="8" t="s">
+      <c r="J7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="6" t="s">
         <v>117</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -3410,16 +3406,16 @@
       </c>
     </row>
     <row r="8" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="J8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="8" t="s">
+      <c r="J8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="6" t="s">
         <v>118</v>
       </c>
       <c r="O8" s="1" t="s">
@@ -3438,16 +3434,16 @@
       </c>
     </row>
     <row r="9" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="J9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" s="8" t="s">
+      <c r="J9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="6" t="s">
         <v>119</v>
       </c>
       <c r="O9" s="1" t="s">
@@ -3466,16 +3462,16 @@
       </c>
     </row>
     <row r="10" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="J10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="8" t="s">
+      <c r="J10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="6" t="s">
         <v>120</v>
       </c>
       <c r="O10" s="1" t="s">
@@ -3494,14 +3490,14 @@
       </c>
     </row>
     <row r="11" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10" t="s">
+      <c r="L11" s="8"/>
+      <c r="M11" s="8" t="s">
         <v>34</v>
       </c>
       <c r="O11" s="1" t="s">
@@ -3520,16 +3516,16 @@
       </c>
     </row>
     <row r="12" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="8" t="s">
         <v>121</v>
       </c>
       <c r="R12" s="1" t="s">
@@ -3541,16 +3537,16 @@
       </c>
     </row>
     <row r="13" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="8" t="s">
         <v>122</v>
       </c>
       <c r="R13" s="1" t="s">
@@ -3563,16 +3559,16 @@
       <c r="T13" s="4"/>
     </row>
     <row r="14" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="8" t="s">
         <v>123</v>
       </c>
       <c r="O14">
@@ -3589,16 +3585,16 @@
       <c r="T14" s="4"/>
     </row>
     <row r="15" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="M15" s="8" t="s">
         <v>124</v>
       </c>
       <c r="R15" s="1" t="s">
@@ -3611,16 +3607,16 @@
       <c r="T15" s="4"/>
     </row>
     <row r="16" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="M16" s="8" t="s">
         <v>35</v>
       </c>
       <c r="R16" s="1" t="s">
@@ -3633,16 +3629,16 @@
       <c r="T16" s="4"/>
     </row>
     <row r="17" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="M17" s="8" t="s">
         <v>125</v>
       </c>
       <c r="R17" s="1" t="s">
@@ -3655,16 +3651,16 @@
       <c r="T17" s="4"/>
     </row>
     <row r="18" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="M18" s="8" t="s">
         <v>126</v>
       </c>
       <c r="R18" s="1" t="s">
@@ -3677,14 +3673,14 @@
       <c r="T18" s="4"/>
     </row>
     <row r="19" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11" t="s">
+      <c r="L19" s="9"/>
+      <c r="M19" s="9" t="s">
         <v>42</v>
       </c>
       <c r="R19" s="1" t="s">
@@ -3697,14 +3693,14 @@
       <c r="T19" s="4"/>
     </row>
     <row r="20" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11" t="s">
+      <c r="L20" s="9"/>
+      <c r="M20" s="9" t="s">
         <v>44</v>
       </c>
       <c r="R20" s="1" t="s">
@@ -3717,14 +3713,14 @@
       <c r="T20" s="4"/>
     </row>
     <row r="21" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11" t="s">
+      <c r="L21" s="9"/>
+      <c r="M21" s="9" t="s">
         <v>36</v>
       </c>
       <c r="R21" s="1" t="s">
@@ -3737,14 +3733,14 @@
       <c r="T21" s="4"/>
     </row>
     <row r="22" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11" t="s">
+      <c r="L22" s="9"/>
+      <c r="M22" s="9" t="s">
         <v>45</v>
       </c>
       <c r="R22" s="1" t="s">
@@ -3757,17 +3753,17 @@
       <c r="T22" s="4"/>
     </row>
     <row r="23" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11" t="s">
+      <c r="L23" s="9"/>
+      <c r="M23" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="O23" s="17" t="s">
+      <c r="O23" s="15" t="s">
         <v>141</v>
       </c>
       <c r="R23" s="1" t="s">
@@ -3780,17 +3776,17 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11" t="s">
+      <c r="L24" s="9"/>
+      <c r="M24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O24" s="17" t="s">
+      <c r="O24" s="15" t="s">
         <v>142</v>
       </c>
       <c r="R24" s="1" t="s">
@@ -3803,14 +3799,14 @@
       <c r="T24" s="4"/>
     </row>
     <row r="25" spans="10:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11" t="s">
+      <c r="L25" s="9"/>
+      <c r="M25" s="9" t="s">
         <v>47</v>
       </c>
       <c r="R25" s="1" t="s">
@@ -3823,16 +3819,16 @@
       <c r="T25" s="4"/>
     </row>
     <row r="26" spans="10:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="L26" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="12" t="s">
+      <c r="M26" s="10" t="s">
         <v>127</v>
       </c>
       <c r="R26" s="1" t="s">
@@ -3845,16 +3841,16 @@
       <c r="T26" s="4"/>
     </row>
     <row r="27" spans="10:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="K27" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L27" s="12" t="s">
+      <c r="L27" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="12" t="s">
+      <c r="M27" s="10" t="s">
         <v>128</v>
       </c>
       <c r="R27" s="1" t="s">
@@ -3867,16 +3863,16 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="10:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="K28" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L28" s="12" t="s">
+      <c r="L28" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M28" s="12" t="s">
+      <c r="M28" s="10" t="s">
         <v>129</v>
       </c>
       <c r="R28" s="1" t="s">
@@ -3889,16 +3885,16 @@
       <c r="T28" s="4"/>
     </row>
     <row r="29" spans="10:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K29" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="12" t="s">
+      <c r="L29" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="M29" s="10" t="s">
         <v>130</v>
       </c>
       <c r="R29" s="1" t="s">
@@ -3911,14 +3907,14 @@
       <c r="T29" s="4"/>
     </row>
     <row r="30" spans="10:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K30" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12" t="s">
+      <c r="L30" s="10"/>
+      <c r="M30" s="10" t="s">
         <v>43</v>
       </c>
       <c r="R30" s="1" t="s">
@@ -3930,16 +3926,16 @@
       </c>
     </row>
     <row r="31" spans="10:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L31" s="12" t="s">
+      <c r="L31" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M31" s="12" t="s">
+      <c r="M31" s="10" t="s">
         <v>131</v>
       </c>
       <c r="R31" s="1" t="s">
@@ -4045,138 +4041,138 @@
       </c>
     </row>
     <row r="37" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J37" s="13" t="s">
+      <c r="J37" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K37" s="13" t="s">
+      <c r="K37" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L37" s="13" t="s">
+      <c r="L37" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="M37" s="13" t="s">
+      <c r="M37" s="11" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="38" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J38" s="13" t="s">
+      <c r="J38" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K38" s="13" t="s">
+      <c r="K38" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L38" s="13" t="s">
+      <c r="L38" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="13" t="s">
+      <c r="M38" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="39" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J39" s="13" t="s">
+      <c r="J39" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K39" s="13" t="s">
+      <c r="K39" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L39" s="13" t="s">
+      <c r="L39" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M39" s="13" t="s">
+      <c r="M39" s="11" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="40" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J40" s="13" t="s">
+      <c r="J40" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K40" s="13" t="s">
+      <c r="K40" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13" t="s">
+      <c r="L40" s="11"/>
+      <c r="M40" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J41" s="14" t="s">
+      <c r="J41" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K41" s="14" t="s">
+      <c r="K41" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L41" s="14" t="s">
+      <c r="L41" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="14" t="s">
+      <c r="M41" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="42" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J42" s="14" t="s">
+      <c r="J42" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="14" t="s">
+      <c r="K42" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L42" s="14" t="s">
+      <c r="L42" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="14" t="s">
+      <c r="M42" s="12" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="43" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J43" s="14" t="s">
+      <c r="J43" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K43" s="14" t="s">
+      <c r="K43" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14" t="s">
+      <c r="L43" s="12"/>
+      <c r="M43" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="44" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J44" s="15" t="s">
+      <c r="J44" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="15" t="s">
+      <c r="K44" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L44" s="15" t="s">
+      <c r="L44" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="15" t="s">
+      <c r="M44" s="13" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="45" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J45" s="15" t="s">
+      <c r="J45" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="15" t="s">
+      <c r="K45" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L45" s="15" t="s">
+      <c r="L45" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="15" t="s">
+      <c r="M45" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="46" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J46" s="16" t="s">
+      <c r="J46" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K46" s="16" t="s">
+      <c r="K46" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L46" s="16" t="s">
+      <c r="L46" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="16" t="s">
+      <c r="M46" s="14" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4250,10 +4246,10 @@
       <c r="N4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="19"/>
+      <c r="O4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="28"/>
     </row>
     <row r="5" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I5" s="1" t="s">
@@ -4407,13 +4403,13 @@
       <c r="I14">
         <v>2</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="5">
         <v>10</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="P14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4473,7 +4469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65761928-532E-4EFF-AB97-D1FDD5696539}">
   <dimension ref="I1:V23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
@@ -5306,79 +5302,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0507BDD7-B434-4D4A-B59B-E131D8DDBDCC}">
   <dimension ref="E1:AC84"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:T11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="K1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="24" t="s">
+      <c r="K1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J2" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="24">
-        <v>0</v>
-      </c>
-      <c r="L2" s="27">
-        <v>0</v>
-      </c>
-      <c r="M2" s="27">
-        <v>1</v>
-      </c>
-      <c r="N2" s="27">
-        <v>0</v>
-      </c>
-      <c r="O2" s="27">
-        <v>0</v>
-      </c>
-      <c r="P2" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="27">
-        <v>0</v>
-      </c>
-      <c r="R2" s="27">
-        <v>0</v>
-      </c>
-      <c r="S2" s="27">
-        <v>0</v>
-      </c>
-      <c r="T2" s="28">
+      <c r="J2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="17">
+        <v>0</v>
+      </c>
+      <c r="L2" s="20">
+        <v>0</v>
+      </c>
+      <c r="M2" s="20">
+        <v>1</v>
+      </c>
+      <c r="N2" s="20">
+        <v>0</v>
+      </c>
+      <c r="O2" s="20">
+        <v>0</v>
+      </c>
+      <c r="P2" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="20">
+        <v>0</v>
+      </c>
+      <c r="R2" s="20">
+        <v>0</v>
+      </c>
+      <c r="S2" s="20">
+        <v>0</v>
+      </c>
+      <c r="T2" s="21">
         <v>0</v>
       </c>
       <c r="U2" s="4"/>
@@ -5403,37 +5399,37 @@
       <c r="AC2" s="4"/>
     </row>
     <row r="3" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="27">
-        <v>0</v>
-      </c>
-      <c r="L3" s="24">
-        <v>0</v>
-      </c>
-      <c r="M3" s="27">
-        <v>1</v>
-      </c>
-      <c r="N3" s="27">
-        <v>0</v>
-      </c>
-      <c r="O3" s="27">
-        <v>0</v>
-      </c>
-      <c r="P3" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="27">
-        <v>0</v>
-      </c>
-      <c r="R3" s="27">
-        <v>0</v>
-      </c>
-      <c r="S3" s="27">
-        <v>0</v>
-      </c>
-      <c r="T3" s="28">
+      <c r="K3" s="20">
+        <v>0</v>
+      </c>
+      <c r="L3" s="17">
+        <v>0</v>
+      </c>
+      <c r="M3" s="20">
+        <v>1</v>
+      </c>
+      <c r="N3" s="20">
+        <v>0</v>
+      </c>
+      <c r="O3" s="20">
+        <v>0</v>
+      </c>
+      <c r="P3" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="20">
+        <v>0</v>
+      </c>
+      <c r="R3" s="20">
+        <v>0</v>
+      </c>
+      <c r="S3" s="20">
+        <v>0</v>
+      </c>
+      <c r="T3" s="21">
         <v>0</v>
       </c>
       <c r="U3" s="4"/>
@@ -5458,37 +5454,37 @@
       <c r="AC3" s="4"/>
     </row>
     <row r="4" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="27">
-        <v>1</v>
-      </c>
-      <c r="L4" s="27">
-        <v>1</v>
-      </c>
-      <c r="M4" s="24">
-        <v>0</v>
-      </c>
-      <c r="N4" s="27">
-        <v>1</v>
-      </c>
-      <c r="O4" s="27">
-        <v>1</v>
-      </c>
-      <c r="P4" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="27">
-        <v>1</v>
-      </c>
-      <c r="R4" s="27">
-        <v>1</v>
-      </c>
-      <c r="S4" s="27">
-        <v>1</v>
-      </c>
-      <c r="T4" s="28">
+      <c r="K4" s="20">
+        <v>1</v>
+      </c>
+      <c r="L4" s="20">
+        <v>1</v>
+      </c>
+      <c r="M4" s="17">
+        <v>0</v>
+      </c>
+      <c r="N4" s="20">
+        <v>1</v>
+      </c>
+      <c r="O4" s="20">
+        <v>1</v>
+      </c>
+      <c r="P4" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>1</v>
+      </c>
+      <c r="R4" s="20">
+        <v>1</v>
+      </c>
+      <c r="S4" s="20">
+        <v>1</v>
+      </c>
+      <c r="T4" s="21">
         <v>1</v>
       </c>
       <c r="U4" s="4"/>
@@ -5513,37 +5509,37 @@
       <c r="AC4" s="4"/>
     </row>
     <row r="5" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="27">
-        <v>0</v>
-      </c>
-      <c r="L5" s="27">
-        <v>0</v>
-      </c>
-      <c r="M5" s="27">
-        <v>1</v>
-      </c>
-      <c r="N5" s="24">
-        <v>0</v>
-      </c>
-      <c r="O5" s="27">
-        <v>0</v>
-      </c>
-      <c r="P5" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="27">
-        <v>0</v>
-      </c>
-      <c r="R5" s="27">
-        <v>0</v>
-      </c>
-      <c r="S5" s="27">
-        <v>1</v>
-      </c>
-      <c r="T5" s="28">
+      <c r="K5" s="20">
+        <v>0</v>
+      </c>
+      <c r="L5" s="20">
+        <v>0</v>
+      </c>
+      <c r="M5" s="20">
+        <v>1</v>
+      </c>
+      <c r="N5" s="17">
+        <v>0</v>
+      </c>
+      <c r="O5" s="20">
+        <v>0</v>
+      </c>
+      <c r="P5" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>0</v>
+      </c>
+      <c r="R5" s="20">
+        <v>0</v>
+      </c>
+      <c r="S5" s="20">
+        <v>1</v>
+      </c>
+      <c r="T5" s="21">
         <v>0</v>
       </c>
       <c r="U5" s="4"/>
@@ -5568,37 +5564,37 @@
       <c r="AC5" s="4"/>
     </row>
     <row r="6" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="27">
-        <v>0</v>
-      </c>
-      <c r="L6" s="27">
-        <v>0</v>
-      </c>
-      <c r="M6" s="27">
-        <v>1</v>
-      </c>
-      <c r="N6" s="27">
-        <v>0</v>
-      </c>
-      <c r="O6" s="24">
-        <v>0</v>
-      </c>
-      <c r="P6" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="27">
-        <v>1</v>
-      </c>
-      <c r="R6" s="27">
-        <v>0</v>
-      </c>
-      <c r="S6" s="27">
-        <v>0</v>
-      </c>
-      <c r="T6" s="28">
+      <c r="K6" s="20">
+        <v>0</v>
+      </c>
+      <c r="L6" s="20">
+        <v>0</v>
+      </c>
+      <c r="M6" s="20">
+        <v>1</v>
+      </c>
+      <c r="N6" s="20">
+        <v>0</v>
+      </c>
+      <c r="O6" s="17">
+        <v>0</v>
+      </c>
+      <c r="P6" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>1</v>
+      </c>
+      <c r="R6" s="20">
+        <v>0</v>
+      </c>
+      <c r="S6" s="20">
+        <v>0</v>
+      </c>
+      <c r="T6" s="21">
         <v>1</v>
       </c>
       <c r="U6" s="4" t="s">
@@ -5632,37 +5628,37 @@
       </c>
     </row>
     <row r="7" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="27">
-        <v>0</v>
-      </c>
-      <c r="L7" s="27">
-        <v>0</v>
-      </c>
-      <c r="M7" s="27">
-        <v>1</v>
-      </c>
-      <c r="N7" s="27">
-        <v>0</v>
-      </c>
-      <c r="O7" s="27">
-        <v>0</v>
-      </c>
-      <c r="P7" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="27">
-        <v>0</v>
-      </c>
-      <c r="R7" s="27">
-        <v>0</v>
-      </c>
-      <c r="S7" s="27">
-        <v>0</v>
-      </c>
-      <c r="T7" s="28">
+      <c r="K7" s="20">
+        <v>0</v>
+      </c>
+      <c r="L7" s="20">
+        <v>0</v>
+      </c>
+      <c r="M7" s="20">
+        <v>1</v>
+      </c>
+      <c r="N7" s="20">
+        <v>0</v>
+      </c>
+      <c r="O7" s="20">
+        <v>0</v>
+      </c>
+      <c r="P7" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="20">
+        <v>0</v>
+      </c>
+      <c r="R7" s="20">
+        <v>0</v>
+      </c>
+      <c r="S7" s="20">
+        <v>0</v>
+      </c>
+      <c r="T7" s="21">
         <v>1</v>
       </c>
       <c r="U7" s="4"/>
@@ -5687,37 +5683,37 @@
       <c r="AC7" s="4"/>
     </row>
     <row r="8" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="27">
-        <v>0</v>
-      </c>
-      <c r="L8" s="27">
-        <v>0</v>
-      </c>
-      <c r="M8" s="27">
-        <v>1</v>
-      </c>
-      <c r="N8" s="27">
-        <v>0</v>
-      </c>
-      <c r="O8" s="27">
-        <v>1</v>
-      </c>
-      <c r="P8" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="24">
-        <v>0</v>
-      </c>
-      <c r="R8" s="27">
-        <v>0</v>
-      </c>
-      <c r="S8" s="27">
-        <v>0</v>
-      </c>
-      <c r="T8" s="28">
+      <c r="K8" s="20">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20">
+        <v>0</v>
+      </c>
+      <c r="M8" s="20">
+        <v>1</v>
+      </c>
+      <c r="N8" s="20">
+        <v>0</v>
+      </c>
+      <c r="O8" s="20">
+        <v>1</v>
+      </c>
+      <c r="P8" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>0</v>
+      </c>
+      <c r="R8" s="20">
+        <v>0</v>
+      </c>
+      <c r="S8" s="20">
+        <v>0</v>
+      </c>
+      <c r="T8" s="21">
         <v>1</v>
       </c>
       <c r="U8" s="4"/>
@@ -5742,37 +5738,37 @@
       <c r="AC8" s="4"/>
     </row>
     <row r="9" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="27">
-        <v>0</v>
-      </c>
-      <c r="L9" s="27">
-        <v>0</v>
-      </c>
-      <c r="M9" s="27">
-        <v>1</v>
-      </c>
-      <c r="N9" s="27">
-        <v>0</v>
-      </c>
-      <c r="O9" s="27">
-        <v>0</v>
-      </c>
-      <c r="P9" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="27">
-        <v>0</v>
-      </c>
-      <c r="R9" s="24">
-        <v>0</v>
-      </c>
-      <c r="S9" s="27">
-        <v>0</v>
-      </c>
-      <c r="T9" s="28">
+      <c r="K9" s="20">
+        <v>0</v>
+      </c>
+      <c r="L9" s="20">
+        <v>0</v>
+      </c>
+      <c r="M9" s="20">
+        <v>1</v>
+      </c>
+      <c r="N9" s="20">
+        <v>0</v>
+      </c>
+      <c r="O9" s="20">
+        <v>0</v>
+      </c>
+      <c r="P9" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>0</v>
+      </c>
+      <c r="R9" s="17">
+        <v>0</v>
+      </c>
+      <c r="S9" s="20">
+        <v>0</v>
+      </c>
+      <c r="T9" s="21">
         <v>0</v>
       </c>
       <c r="U9" s="4"/>
@@ -5797,37 +5793,37 @@
       <c r="AC9" s="4"/>
     </row>
     <row r="10" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="27">
-        <v>0</v>
-      </c>
-      <c r="L10" s="27">
-        <v>0</v>
-      </c>
-      <c r="M10" s="27">
-        <v>1</v>
-      </c>
-      <c r="N10" s="27">
-        <v>1</v>
-      </c>
-      <c r="O10" s="27">
-        <v>0</v>
-      </c>
-      <c r="P10" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="27">
-        <v>0</v>
-      </c>
-      <c r="R10" s="27">
-        <v>0</v>
-      </c>
-      <c r="S10" s="24">
-        <v>0</v>
-      </c>
-      <c r="T10" s="28">
+      <c r="K10" s="20">
+        <v>0</v>
+      </c>
+      <c r="L10" s="20">
+        <v>0</v>
+      </c>
+      <c r="M10" s="20">
+        <v>1</v>
+      </c>
+      <c r="N10" s="20">
+        <v>1</v>
+      </c>
+      <c r="O10" s="20">
+        <v>0</v>
+      </c>
+      <c r="P10" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>0</v>
+      </c>
+      <c r="R10" s="20">
+        <v>0</v>
+      </c>
+      <c r="S10" s="17">
+        <v>0</v>
+      </c>
+      <c r="T10" s="21">
         <v>0</v>
       </c>
       <c r="U10" s="4"/>
@@ -5852,37 +5848,37 @@
       <c r="AC10" s="4"/>
     </row>
     <row r="11" spans="10:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="30">
-        <v>0</v>
-      </c>
-      <c r="L11" s="30">
-        <v>0</v>
-      </c>
-      <c r="M11" s="30">
-        <v>1</v>
-      </c>
-      <c r="N11" s="30">
-        <v>0</v>
-      </c>
-      <c r="O11" s="30">
-        <v>0</v>
-      </c>
-      <c r="P11" s="30">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="30">
-        <v>1</v>
-      </c>
-      <c r="R11" s="30">
-        <v>0</v>
-      </c>
-      <c r="S11" s="30">
-        <v>0</v>
-      </c>
-      <c r="T11" s="31">
+      <c r="K11" s="23">
+        <v>0</v>
+      </c>
+      <c r="L11" s="23">
+        <v>0</v>
+      </c>
+      <c r="M11" s="23">
+        <v>1</v>
+      </c>
+      <c r="N11" s="23">
+        <v>0</v>
+      </c>
+      <c r="O11" s="23">
+        <v>0</v>
+      </c>
+      <c r="P11" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="23">
+        <v>1</v>
+      </c>
+      <c r="R11" s="23">
+        <v>0</v>
+      </c>
+      <c r="S11" s="23">
+        <v>0</v>
+      </c>
+      <c r="T11" s="24">
         <v>0</v>
       </c>
       <c r="U11" s="4"/>
@@ -5943,37 +5939,37 @@
       <c r="AC14" s="4"/>
     </row>
     <row r="15" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="24" t="s">
+      <c r="K15" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="M15" s="24" t="s">
+      <c r="M15" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="24" t="s">
+      <c r="N15" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="24" t="s">
+      <c r="P15" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Q15" s="24" t="s">
+      <c r="Q15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="R15" s="24" t="s">
+      <c r="R15" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="S15" s="24" t="s">
+      <c r="S15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="25" t="s">
+      <c r="T15" s="18" t="s">
         <v>9</v>
       </c>
       <c r="U15" s="4"/>
@@ -5987,37 +5983,37 @@
       <c r="AC15" s="4"/>
     </row>
     <row r="16" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J16" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" s="24">
-        <v>0</v>
-      </c>
-      <c r="L16" s="27">
-        <v>0</v>
-      </c>
-      <c r="M16" s="27">
-        <v>1</v>
-      </c>
-      <c r="N16" s="27">
-        <v>0</v>
-      </c>
-      <c r="O16" s="27">
-        <v>0</v>
-      </c>
-      <c r="P16" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="27">
-        <v>0</v>
-      </c>
-      <c r="R16" s="27">
-        <v>0</v>
-      </c>
-      <c r="S16" s="27">
-        <v>0</v>
-      </c>
-      <c r="T16" s="28">
+      <c r="J16" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="17">
+        <v>0</v>
+      </c>
+      <c r="L16" s="20">
+        <v>0</v>
+      </c>
+      <c r="M16" s="20">
+        <v>1</v>
+      </c>
+      <c r="N16" s="20">
+        <v>0</v>
+      </c>
+      <c r="O16" s="20">
+        <v>0</v>
+      </c>
+      <c r="P16" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="20">
+        <v>0</v>
+      </c>
+      <c r="R16" s="20">
+        <v>0</v>
+      </c>
+      <c r="S16" s="20">
+        <v>0</v>
+      </c>
+      <c r="T16" s="21">
         <v>0</v>
       </c>
       <c r="U16" s="4"/>
@@ -6030,7 +6026,7 @@
         <v>0.81150267120068897</v>
       </c>
       <c r="Y16" s="4"/>
-      <c r="Z16" s="32">
+      <c r="Z16" s="25">
         <f>X16/$X$27</f>
         <v>0.22507034547615989</v>
       </c>
@@ -6042,37 +6038,37 @@
       <c r="AC16" s="4"/>
     </row>
     <row r="17" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="K17" s="27">
-        <v>0</v>
-      </c>
-      <c r="L17" s="24">
-        <v>0</v>
-      </c>
-      <c r="M17" s="27">
-        <v>1</v>
-      </c>
-      <c r="N17" s="27">
-        <v>0</v>
-      </c>
-      <c r="O17" s="27">
-        <v>0</v>
-      </c>
-      <c r="P17" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="27">
-        <v>0</v>
-      </c>
-      <c r="R17" s="27">
-        <v>0</v>
-      </c>
-      <c r="S17" s="27">
-        <v>0</v>
-      </c>
-      <c r="T17" s="28">
+      <c r="K17" s="20">
+        <v>0</v>
+      </c>
+      <c r="L17" s="17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="20">
+        <v>1</v>
+      </c>
+      <c r="N17" s="20">
+        <v>0</v>
+      </c>
+      <c r="O17" s="20">
+        <v>0</v>
+      </c>
+      <c r="P17" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="20">
+        <v>0</v>
+      </c>
+      <c r="R17" s="20">
+        <v>0</v>
+      </c>
+      <c r="S17" s="20">
+        <v>0</v>
+      </c>
+      <c r="T17" s="21">
         <v>0</v>
       </c>
       <c r="U17" s="4"/>
@@ -6085,8 +6081,8 @@
         <v>0.81150267120068897</v>
       </c>
       <c r="Y17" s="4"/>
-      <c r="Z17" s="32">
-        <f t="shared" ref="Z17:Z25" si="2">X17/$X$27</f>
+      <c r="Z17" s="25">
+        <f t="shared" ref="Z17:Z22" si="2">X17/$X$27</f>
         <v>0.22507034547615989</v>
       </c>
       <c r="AA17" s="4"/>
@@ -6097,37 +6093,37 @@
       <c r="AC17" s="4"/>
     </row>
     <row r="18" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="27">
-        <v>1</v>
-      </c>
-      <c r="L18" s="27">
-        <v>1</v>
-      </c>
-      <c r="M18" s="24">
-        <v>0</v>
-      </c>
-      <c r="N18" s="27">
-        <v>1</v>
-      </c>
-      <c r="O18" s="27">
-        <v>1</v>
-      </c>
-      <c r="P18" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="27">
-        <v>1</v>
-      </c>
-      <c r="R18" s="27">
-        <v>1</v>
-      </c>
-      <c r="S18" s="27">
-        <v>1</v>
-      </c>
-      <c r="T18" s="28">
+      <c r="K18" s="20">
+        <v>1</v>
+      </c>
+      <c r="L18" s="20">
+        <v>1</v>
+      </c>
+      <c r="M18" s="17">
+        <v>0</v>
+      </c>
+      <c r="N18" s="20">
+        <v>1</v>
+      </c>
+      <c r="O18" s="20">
+        <v>1</v>
+      </c>
+      <c r="P18" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="20">
+        <v>1</v>
+      </c>
+      <c r="R18" s="20">
+        <v>1</v>
+      </c>
+      <c r="S18" s="20">
+        <v>1</v>
+      </c>
+      <c r="T18" s="21">
         <v>1</v>
       </c>
       <c r="U18" s="4"/>
@@ -6140,7 +6136,7 @@
         <v>1.6230053424013782</v>
       </c>
       <c r="Y18" s="4"/>
-      <c r="Z18" s="32">
+      <c r="Z18" s="25">
         <f t="shared" si="2"/>
         <v>0.45014069095231984</v>
       </c>
@@ -6152,37 +6148,37 @@
       <c r="AC18" s="4"/>
     </row>
     <row r="19" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="J19" s="26" t="s">
+      <c r="J19" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="27">
-        <v>0</v>
-      </c>
-      <c r="L19" s="27">
-        <v>0</v>
-      </c>
-      <c r="M19" s="27">
-        <v>1</v>
-      </c>
-      <c r="N19" s="24">
-        <v>0</v>
-      </c>
-      <c r="O19" s="27">
-        <v>0</v>
-      </c>
-      <c r="P19" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="27">
-        <v>0</v>
-      </c>
-      <c r="R19" s="27">
-        <v>0</v>
-      </c>
-      <c r="S19" s="27">
-        <v>1</v>
-      </c>
-      <c r="T19" s="28">
+      <c r="K19" s="20">
+        <v>0</v>
+      </c>
+      <c r="L19" s="20">
+        <v>0</v>
+      </c>
+      <c r="M19" s="20">
+        <v>1</v>
+      </c>
+      <c r="N19" s="17">
+        <v>0</v>
+      </c>
+      <c r="O19" s="20">
+        <v>0</v>
+      </c>
+      <c r="P19" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="20">
+        <v>0</v>
+      </c>
+      <c r="R19" s="20">
+        <v>0</v>
+      </c>
+      <c r="S19" s="20">
+        <v>1</v>
+      </c>
+      <c r="T19" s="21">
         <v>0</v>
       </c>
       <c r="U19" s="4"/>
@@ -6195,7 +6191,7 @@
         <v>0.99183659813417546</v>
       </c>
       <c r="Y19" s="4"/>
-      <c r="Z19" s="32">
+      <c r="Z19" s="25">
         <f t="shared" si="2"/>
         <v>0.27508597780419541</v>
       </c>
@@ -6207,37 +6203,37 @@
       <c r="AC19" s="4"/>
     </row>
     <row r="20" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="27">
-        <v>0</v>
-      </c>
-      <c r="L20" s="27">
-        <v>0</v>
-      </c>
-      <c r="M20" s="27">
-        <v>1</v>
-      </c>
-      <c r="N20" s="27">
-        <v>0</v>
-      </c>
-      <c r="O20" s="24">
-        <v>0</v>
-      </c>
-      <c r="P20" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="27">
-        <v>1</v>
-      </c>
-      <c r="R20" s="27">
-        <v>0</v>
-      </c>
-      <c r="S20" s="27">
-        <v>0</v>
-      </c>
-      <c r="T20" s="28">
+      <c r="K20" s="20">
+        <v>0</v>
+      </c>
+      <c r="L20" s="20">
+        <v>0</v>
+      </c>
+      <c r="M20" s="20">
+        <v>1</v>
+      </c>
+      <c r="N20" s="20">
+        <v>0</v>
+      </c>
+      <c r="O20" s="17">
+        <v>0</v>
+      </c>
+      <c r="P20" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="20">
+        <v>1</v>
+      </c>
+      <c r="R20" s="20">
+        <v>0</v>
+      </c>
+      <c r="S20" s="20">
+        <v>0</v>
+      </c>
+      <c r="T20" s="21">
         <v>1</v>
       </c>
       <c r="U20" s="4" t="s">
@@ -6256,7 +6252,7 @@
       <c r="Y20" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="Z20" s="32">
+      <c r="Z20" s="25">
         <f t="shared" si="2"/>
         <v>0.37511724246026651</v>
       </c>
@@ -6265,43 +6261,43 @@
         <f t="shared" si="3"/>
         <v>0.10461635206003683</v>
       </c>
-      <c r="AC20" s="32">
+      <c r="AC20" s="25">
         <f>SQRT(AB16^2+AB17^2+AB18^2+AB19^2+AB20^2+AB21^2+AB22^2+AB23^2+AB24^2+AB25^2)</f>
         <v>0.49568564379710617</v>
       </c>
     </row>
     <row r="21" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="27">
-        <v>0</v>
-      </c>
-      <c r="L21" s="27">
-        <v>0</v>
-      </c>
-      <c r="M21" s="27">
-        <v>1</v>
-      </c>
-      <c r="N21" s="27">
-        <v>0</v>
-      </c>
-      <c r="O21" s="27">
-        <v>0</v>
-      </c>
-      <c r="P21" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="27">
-        <v>0</v>
-      </c>
-      <c r="R21" s="27">
-        <v>0</v>
-      </c>
-      <c r="S21" s="27">
-        <v>0</v>
-      </c>
-      <c r="T21" s="28">
+      <c r="K21" s="20">
+        <v>0</v>
+      </c>
+      <c r="L21" s="20">
+        <v>0</v>
+      </c>
+      <c r="M21" s="20">
+        <v>1</v>
+      </c>
+      <c r="N21" s="20">
+        <v>0</v>
+      </c>
+      <c r="O21" s="20">
+        <v>0</v>
+      </c>
+      <c r="P21" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="20">
+        <v>0</v>
+      </c>
+      <c r="R21" s="20">
+        <v>0</v>
+      </c>
+      <c r="S21" s="20">
+        <v>0</v>
+      </c>
+      <c r="T21" s="21">
         <v>1</v>
       </c>
       <c r="U21" s="4"/>
@@ -6314,7 +6310,7 @@
         <v>1.0820035616009187</v>
       </c>
       <c r="Y21" s="4"/>
-      <c r="Z21" s="32">
+      <c r="Z21" s="25">
         <f t="shared" si="2"/>
         <v>0.30009379396821323</v>
       </c>
@@ -6326,37 +6322,37 @@
       <c r="AC21" s="4"/>
     </row>
     <row r="22" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="J22" s="26" t="s">
+      <c r="J22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K22" s="27">
-        <v>0</v>
-      </c>
-      <c r="L22" s="27">
-        <v>0</v>
-      </c>
-      <c r="M22" s="27">
-        <v>1</v>
-      </c>
-      <c r="N22" s="27">
-        <v>0</v>
-      </c>
-      <c r="O22" s="27">
-        <v>1</v>
-      </c>
-      <c r="P22" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="24">
-        <v>0</v>
-      </c>
-      <c r="R22" s="27">
-        <v>0</v>
-      </c>
-      <c r="S22" s="27">
-        <v>0</v>
-      </c>
-      <c r="T22" s="28">
+      <c r="K22" s="20">
+        <v>0</v>
+      </c>
+      <c r="L22" s="20">
+        <v>0</v>
+      </c>
+      <c r="M22" s="20">
+        <v>1</v>
+      </c>
+      <c r="N22" s="20">
+        <v>0</v>
+      </c>
+      <c r="O22" s="20">
+        <v>1</v>
+      </c>
+      <c r="P22" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="17">
+        <v>0</v>
+      </c>
+      <c r="R22" s="20">
+        <v>0</v>
+      </c>
+      <c r="S22" s="20">
+        <v>0</v>
+      </c>
+      <c r="T22" s="21">
         <v>1</v>
       </c>
       <c r="U22" s="4"/>
@@ -6369,7 +6365,7 @@
         <v>1.3525044520011484</v>
       </c>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="32">
+      <c r="Z22" s="25">
         <f t="shared" si="2"/>
         <v>0.37511724246026651</v>
       </c>
@@ -6381,37 +6377,37 @@
       <c r="AC22" s="4"/>
     </row>
     <row r="23" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="J23" s="26" t="s">
+      <c r="J23" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="27">
-        <v>0</v>
-      </c>
-      <c r="L23" s="27">
-        <v>0</v>
-      </c>
-      <c r="M23" s="27">
-        <v>1</v>
-      </c>
-      <c r="N23" s="27">
-        <v>0</v>
-      </c>
-      <c r="O23" s="27">
-        <v>0</v>
-      </c>
-      <c r="P23" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="27">
-        <v>0</v>
-      </c>
-      <c r="R23" s="24">
-        <v>0</v>
-      </c>
-      <c r="S23" s="27">
-        <v>0</v>
-      </c>
-      <c r="T23" s="28">
+      <c r="K23" s="20">
+        <v>0</v>
+      </c>
+      <c r="L23" s="20">
+        <v>0</v>
+      </c>
+      <c r="M23" s="20">
+        <v>1</v>
+      </c>
+      <c r="N23" s="20">
+        <v>0</v>
+      </c>
+      <c r="O23" s="20">
+        <v>0</v>
+      </c>
+      <c r="P23" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="20">
+        <v>0</v>
+      </c>
+      <c r="R23" s="17">
+        <v>0</v>
+      </c>
+      <c r="S23" s="20">
+        <v>0</v>
+      </c>
+      <c r="T23" s="21">
         <v>0</v>
       </c>
       <c r="U23" s="4"/>
@@ -6424,7 +6420,7 @@
         <v>0.81150267120068897</v>
       </c>
       <c r="Y23" s="4"/>
-      <c r="Z23" s="32">
+      <c r="Z23" s="25">
         <f>X23/$X$27</f>
         <v>0.22507034547615989</v>
       </c>
@@ -6436,37 +6432,37 @@
       <c r="AC23" s="4"/>
     </row>
     <row r="24" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="J24" s="26" t="s">
+      <c r="J24" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="27">
-        <v>0</v>
-      </c>
-      <c r="L24" s="27">
-        <v>0</v>
-      </c>
-      <c r="M24" s="27">
-        <v>1</v>
-      </c>
-      <c r="N24" s="27">
-        <v>1</v>
-      </c>
-      <c r="O24" s="27">
-        <v>0</v>
-      </c>
-      <c r="P24" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="27">
-        <v>0</v>
-      </c>
-      <c r="R24" s="27">
-        <v>0</v>
-      </c>
-      <c r="S24" s="24">
-        <v>0</v>
-      </c>
-      <c r="T24" s="28">
+      <c r="K24" s="20">
+        <v>0</v>
+      </c>
+      <c r="L24" s="20">
+        <v>0</v>
+      </c>
+      <c r="M24" s="20">
+        <v>1</v>
+      </c>
+      <c r="N24" s="20">
+        <v>1</v>
+      </c>
+      <c r="O24" s="20">
+        <v>0</v>
+      </c>
+      <c r="P24" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="20">
+        <v>0</v>
+      </c>
+      <c r="R24" s="20">
+        <v>0</v>
+      </c>
+      <c r="S24" s="17">
+        <v>0</v>
+      </c>
+      <c r="T24" s="21">
         <v>0</v>
       </c>
       <c r="U24" s="4"/>
@@ -6479,8 +6475,8 @@
         <v>0.99183659813417546</v>
       </c>
       <c r="Y24" s="4"/>
-      <c r="Z24" s="32">
-        <f t="shared" ref="Z24:Z27" si="4">X24/$X$27</f>
+      <c r="Z24" s="25">
+        <f t="shared" ref="Z24:Z25" si="4">X24/$X$27</f>
         <v>0.27508597780419541</v>
       </c>
       <c r="AA24" s="4"/>
@@ -6491,37 +6487,37 @@
       <c r="AC24" s="4"/>
     </row>
     <row r="25" spans="5:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J25" s="29" t="s">
+      <c r="J25" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="30">
-        <v>0</v>
-      </c>
-      <c r="L25" s="30">
-        <v>0</v>
-      </c>
-      <c r="M25" s="30">
-        <v>1</v>
-      </c>
-      <c r="N25" s="30">
-        <v>0</v>
-      </c>
-      <c r="O25" s="30">
-        <v>0</v>
-      </c>
-      <c r="P25" s="30">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="30">
-        <v>1</v>
-      </c>
-      <c r="R25" s="30">
-        <v>0</v>
-      </c>
-      <c r="S25" s="30">
-        <v>0</v>
-      </c>
-      <c r="T25" s="31">
+      <c r="K25" s="23">
+        <v>0</v>
+      </c>
+      <c r="L25" s="23">
+        <v>0</v>
+      </c>
+      <c r="M25" s="23">
+        <v>1</v>
+      </c>
+      <c r="N25" s="23">
+        <v>0</v>
+      </c>
+      <c r="O25" s="23">
+        <v>0</v>
+      </c>
+      <c r="P25" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="23">
+        <v>1</v>
+      </c>
+      <c r="R25" s="23">
+        <v>0</v>
+      </c>
+      <c r="S25" s="23">
+        <v>0</v>
+      </c>
+      <c r="T25" s="24">
         <v>0</v>
       </c>
       <c r="U25" s="4"/>
@@ -6534,7 +6530,7 @@
         <v>1.2623374885344052</v>
       </c>
       <c r="Y25" s="4"/>
-      <c r="Z25" s="32">
+      <c r="Z25" s="25">
         <f t="shared" si="4"/>
         <v>0.35010942629624875</v>
       </c>
@@ -6593,37 +6589,37 @@
       <c r="AC27" s="4"/>
     </row>
     <row r="29" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="J29" s="23" t="s">
+      <c r="J29" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="K29" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="L29" s="24" t="s">
+      <c r="K29" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="M29" s="24" t="s">
+      <c r="M29" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N29" s="24" t="s">
+      <c r="N29" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="24" t="s">
+      <c r="O29" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="24" t="s">
+      <c r="P29" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Q29" s="24" t="s">
+      <c r="Q29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="R29" s="24" t="s">
+      <c r="R29" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="S29" s="24" t="s">
+      <c r="S29" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="25" t="s">
+      <c r="T29" s="18" t="s">
         <v>9</v>
       </c>
       <c r="U29" s="4"/>
@@ -6640,37 +6636,37 @@
       <c r="E30" t="s">
         <v>154</v>
       </c>
-      <c r="J30" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="K30" s="24">
-        <v>0</v>
-      </c>
-      <c r="L30" s="27">
-        <v>0</v>
-      </c>
-      <c r="M30" s="27">
-        <v>1</v>
-      </c>
-      <c r="N30" s="27">
-        <v>0</v>
-      </c>
-      <c r="O30" s="27">
-        <v>0</v>
-      </c>
-      <c r="P30" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="27">
-        <v>0</v>
-      </c>
-      <c r="R30" s="27">
-        <v>0</v>
-      </c>
-      <c r="S30" s="27">
-        <v>0</v>
-      </c>
-      <c r="T30" s="28">
+      <c r="J30" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="17">
+        <v>0</v>
+      </c>
+      <c r="L30" s="20">
+        <v>0</v>
+      </c>
+      <c r="M30" s="20">
+        <v>1</v>
+      </c>
+      <c r="N30" s="20">
+        <v>0</v>
+      </c>
+      <c r="O30" s="20">
+        <v>0</v>
+      </c>
+      <c r="P30" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="20">
+        <v>0</v>
+      </c>
+      <c r="R30" s="20">
+        <v>0</v>
+      </c>
+      <c r="S30" s="20">
+        <v>0</v>
+      </c>
+      <c r="T30" s="21">
         <v>0</v>
       </c>
       <c r="U30" s="4"/>
@@ -6695,37 +6691,37 @@
       <c r="AC30" s="4"/>
     </row>
     <row r="31" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="J31" s="26" t="s">
+      <c r="J31" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="K31" s="27">
-        <v>0</v>
-      </c>
-      <c r="L31" s="24">
-        <v>0</v>
-      </c>
-      <c r="M31" s="27">
-        <v>1</v>
-      </c>
-      <c r="N31" s="27">
-        <v>0</v>
-      </c>
-      <c r="O31" s="27">
-        <v>0</v>
-      </c>
-      <c r="P31" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="27">
-        <v>0</v>
-      </c>
-      <c r="R31" s="27">
-        <v>0</v>
-      </c>
-      <c r="S31" s="27">
-        <v>0</v>
-      </c>
-      <c r="T31" s="28">
+      <c r="K31" s="20">
+        <v>0</v>
+      </c>
+      <c r="L31" s="17">
+        <v>0</v>
+      </c>
+      <c r="M31" s="20">
+        <v>1</v>
+      </c>
+      <c r="N31" s="20">
+        <v>0</v>
+      </c>
+      <c r="O31" s="20">
+        <v>0</v>
+      </c>
+      <c r="P31" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="20">
+        <v>0</v>
+      </c>
+      <c r="R31" s="20">
+        <v>0</v>
+      </c>
+      <c r="S31" s="20">
+        <v>0</v>
+      </c>
+      <c r="T31" s="21">
         <v>0</v>
       </c>
       <c r="U31" s="4"/>
@@ -6750,37 +6746,37 @@
       <c r="AC31" s="4"/>
     </row>
     <row r="32" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="J32" s="26" t="s">
+      <c r="J32" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="27">
-        <v>1</v>
-      </c>
-      <c r="L32" s="27">
-        <v>1</v>
-      </c>
-      <c r="M32" s="24">
-        <v>0</v>
-      </c>
-      <c r="N32" s="27">
-        <v>1</v>
-      </c>
-      <c r="O32" s="27">
-        <v>1</v>
-      </c>
-      <c r="P32" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="27">
-        <v>1</v>
-      </c>
-      <c r="R32" s="27">
-        <v>1</v>
-      </c>
-      <c r="S32" s="27">
-        <v>1</v>
-      </c>
-      <c r="T32" s="28">
+      <c r="K32" s="20">
+        <v>1</v>
+      </c>
+      <c r="L32" s="20">
+        <v>1</v>
+      </c>
+      <c r="M32" s="17">
+        <v>0</v>
+      </c>
+      <c r="N32" s="20">
+        <v>1</v>
+      </c>
+      <c r="O32" s="20">
+        <v>1</v>
+      </c>
+      <c r="P32" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="20">
+        <v>1</v>
+      </c>
+      <c r="R32" s="20">
+        <v>1</v>
+      </c>
+      <c r="S32" s="20">
+        <v>1</v>
+      </c>
+      <c r="T32" s="21">
         <v>1</v>
       </c>
       <c r="U32" s="4"/>
@@ -6805,37 +6801,37 @@
       <c r="AC32" s="4"/>
     </row>
     <row r="33" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J33" s="26" t="s">
+      <c r="J33" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K33" s="27">
-        <v>0</v>
-      </c>
-      <c r="L33" s="27">
-        <v>0</v>
-      </c>
-      <c r="M33" s="27">
-        <v>1</v>
-      </c>
-      <c r="N33" s="24">
-        <v>0</v>
-      </c>
-      <c r="O33" s="27">
-        <v>0</v>
-      </c>
-      <c r="P33" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="27">
-        <v>0</v>
-      </c>
-      <c r="R33" s="27">
-        <v>0</v>
-      </c>
-      <c r="S33" s="27">
-        <v>1</v>
-      </c>
-      <c r="T33" s="28">
+      <c r="K33" s="20">
+        <v>0</v>
+      </c>
+      <c r="L33" s="20">
+        <v>0</v>
+      </c>
+      <c r="M33" s="20">
+        <v>1</v>
+      </c>
+      <c r="N33" s="17">
+        <v>0</v>
+      </c>
+      <c r="O33" s="20">
+        <v>0</v>
+      </c>
+      <c r="P33" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="20">
+        <v>0</v>
+      </c>
+      <c r="R33" s="20">
+        <v>0</v>
+      </c>
+      <c r="S33" s="20">
+        <v>1</v>
+      </c>
+      <c r="T33" s="21">
         <v>0</v>
       </c>
       <c r="U33" s="4"/>
@@ -6860,37 +6856,37 @@
       <c r="AC33" s="4"/>
     </row>
     <row r="34" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J34" s="26" t="s">
+      <c r="J34" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K34" s="27">
-        <v>0</v>
-      </c>
-      <c r="L34" s="27">
-        <v>0</v>
-      </c>
-      <c r="M34" s="27">
-        <v>1</v>
-      </c>
-      <c r="N34" s="27">
-        <v>0</v>
-      </c>
-      <c r="O34" s="24">
-        <v>0</v>
-      </c>
-      <c r="P34" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="27">
-        <v>1</v>
-      </c>
-      <c r="R34" s="27">
-        <v>0</v>
-      </c>
-      <c r="S34" s="27">
-        <v>0</v>
-      </c>
-      <c r="T34" s="28">
+      <c r="K34" s="20">
+        <v>0</v>
+      </c>
+      <c r="L34" s="20">
+        <v>0</v>
+      </c>
+      <c r="M34" s="20">
+        <v>1</v>
+      </c>
+      <c r="N34" s="20">
+        <v>0</v>
+      </c>
+      <c r="O34" s="17">
+        <v>0</v>
+      </c>
+      <c r="P34" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="20">
+        <v>1</v>
+      </c>
+      <c r="R34" s="20">
+        <v>0</v>
+      </c>
+      <c r="S34" s="20">
+        <v>0</v>
+      </c>
+      <c r="T34" s="21">
         <v>1</v>
       </c>
       <c r="U34" s="4" t="s">
@@ -6924,37 +6920,37 @@
       </c>
     </row>
     <row r="35" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J35" s="26" t="s">
+      <c r="J35" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K35" s="27">
-        <v>0</v>
-      </c>
-      <c r="L35" s="27">
-        <v>0</v>
-      </c>
-      <c r="M35" s="27">
-        <v>1</v>
-      </c>
-      <c r="N35" s="27">
-        <v>0</v>
-      </c>
-      <c r="O35" s="27">
-        <v>0</v>
-      </c>
-      <c r="P35" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="27">
-        <v>0</v>
-      </c>
-      <c r="R35" s="27">
-        <v>0</v>
-      </c>
-      <c r="S35" s="27">
-        <v>0</v>
-      </c>
-      <c r="T35" s="28">
+      <c r="K35" s="20">
+        <v>0</v>
+      </c>
+      <c r="L35" s="20">
+        <v>0</v>
+      </c>
+      <c r="M35" s="20">
+        <v>1</v>
+      </c>
+      <c r="N35" s="20">
+        <v>0</v>
+      </c>
+      <c r="O35" s="20">
+        <v>0</v>
+      </c>
+      <c r="P35" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="20">
+        <v>0</v>
+      </c>
+      <c r="R35" s="20">
+        <v>0</v>
+      </c>
+      <c r="S35" s="20">
+        <v>0</v>
+      </c>
+      <c r="T35" s="21">
         <v>1</v>
       </c>
       <c r="U35" s="4"/>
@@ -6979,37 +6975,37 @@
       <c r="AC35" s="4"/>
     </row>
     <row r="36" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J36" s="26" t="s">
+      <c r="J36" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K36" s="27">
-        <v>0</v>
-      </c>
-      <c r="L36" s="27">
-        <v>0</v>
-      </c>
-      <c r="M36" s="27">
-        <v>1</v>
-      </c>
-      <c r="N36" s="27">
-        <v>0</v>
-      </c>
-      <c r="O36" s="27">
-        <v>1</v>
-      </c>
-      <c r="P36" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="24">
-        <v>0</v>
-      </c>
-      <c r="R36" s="27">
-        <v>0</v>
-      </c>
-      <c r="S36" s="27">
-        <v>0</v>
-      </c>
-      <c r="T36" s="28">
+      <c r="K36" s="20">
+        <v>0</v>
+      </c>
+      <c r="L36" s="20">
+        <v>0</v>
+      </c>
+      <c r="M36" s="20">
+        <v>1</v>
+      </c>
+      <c r="N36" s="20">
+        <v>0</v>
+      </c>
+      <c r="O36" s="20">
+        <v>1</v>
+      </c>
+      <c r="P36" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="17">
+        <v>0</v>
+      </c>
+      <c r="R36" s="20">
+        <v>0</v>
+      </c>
+      <c r="S36" s="20">
+        <v>0</v>
+      </c>
+      <c r="T36" s="21">
         <v>1</v>
       </c>
       <c r="U36" s="4"/>
@@ -7034,37 +7030,37 @@
       <c r="AC36" s="4"/>
     </row>
     <row r="37" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J37" s="26" t="s">
+      <c r="J37" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K37" s="27">
-        <v>0</v>
-      </c>
-      <c r="L37" s="27">
-        <v>0</v>
-      </c>
-      <c r="M37" s="27">
-        <v>1</v>
-      </c>
-      <c r="N37" s="27">
-        <v>0</v>
-      </c>
-      <c r="O37" s="27">
-        <v>0</v>
-      </c>
-      <c r="P37" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="27">
-        <v>0</v>
-      </c>
-      <c r="R37" s="24">
-        <v>0</v>
-      </c>
-      <c r="S37" s="27">
-        <v>0</v>
-      </c>
-      <c r="T37" s="28">
+      <c r="K37" s="20">
+        <v>0</v>
+      </c>
+      <c r="L37" s="20">
+        <v>0</v>
+      </c>
+      <c r="M37" s="20">
+        <v>1</v>
+      </c>
+      <c r="N37" s="20">
+        <v>0</v>
+      </c>
+      <c r="O37" s="20">
+        <v>0</v>
+      </c>
+      <c r="P37" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="20">
+        <v>0</v>
+      </c>
+      <c r="R37" s="17">
+        <v>0</v>
+      </c>
+      <c r="S37" s="20">
+        <v>0</v>
+      </c>
+      <c r="T37" s="21">
         <v>0</v>
       </c>
       <c r="U37" s="4"/>
@@ -7089,37 +7085,37 @@
       <c r="AC37" s="4"/>
     </row>
     <row r="38" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J38" s="26" t="s">
+      <c r="J38" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K38" s="27">
-        <v>0</v>
-      </c>
-      <c r="L38" s="27">
-        <v>0</v>
-      </c>
-      <c r="M38" s="27">
-        <v>1</v>
-      </c>
-      <c r="N38" s="27">
-        <v>1</v>
-      </c>
-      <c r="O38" s="27">
-        <v>0</v>
-      </c>
-      <c r="P38" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="27">
-        <v>0</v>
-      </c>
-      <c r="R38" s="27">
-        <v>0</v>
-      </c>
-      <c r="S38" s="24">
-        <v>0</v>
-      </c>
-      <c r="T38" s="28">
+      <c r="K38" s="20">
+        <v>0</v>
+      </c>
+      <c r="L38" s="20">
+        <v>0</v>
+      </c>
+      <c r="M38" s="20">
+        <v>1</v>
+      </c>
+      <c r="N38" s="20">
+        <v>1</v>
+      </c>
+      <c r="O38" s="20">
+        <v>0</v>
+      </c>
+      <c r="P38" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="20">
+        <v>0</v>
+      </c>
+      <c r="R38" s="20">
+        <v>0</v>
+      </c>
+      <c r="S38" s="17">
+        <v>0</v>
+      </c>
+      <c r="T38" s="21">
         <v>0</v>
       </c>
       <c r="U38" s="4"/>
@@ -7144,37 +7140,37 @@
       <c r="AC38" s="4"/>
     </row>
     <row r="39" spans="10:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J39" s="29" t="s">
+      <c r="J39" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K39" s="30">
-        <v>0</v>
-      </c>
-      <c r="L39" s="30">
-        <v>0</v>
-      </c>
-      <c r="M39" s="30">
-        <v>1</v>
-      </c>
-      <c r="N39" s="30">
-        <v>0</v>
-      </c>
-      <c r="O39" s="30">
-        <v>0</v>
-      </c>
-      <c r="P39" s="30">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="30">
-        <v>1</v>
-      </c>
-      <c r="R39" s="30">
-        <v>0</v>
-      </c>
-      <c r="S39" s="30">
-        <v>0</v>
-      </c>
-      <c r="T39" s="31">
+      <c r="K39" s="23">
+        <v>0</v>
+      </c>
+      <c r="L39" s="23">
+        <v>0</v>
+      </c>
+      <c r="M39" s="23">
+        <v>1</v>
+      </c>
+      <c r="N39" s="23">
+        <v>0</v>
+      </c>
+      <c r="O39" s="23">
+        <v>0</v>
+      </c>
+      <c r="P39" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="23">
+        <v>1</v>
+      </c>
+      <c r="R39" s="23">
+        <v>0</v>
+      </c>
+      <c r="S39" s="23">
+        <v>0</v>
+      </c>
+      <c r="T39" s="24">
         <v>0</v>
       </c>
       <c r="U39" s="4"/>
@@ -7290,37 +7286,37 @@
       <c r="AC43" s="4"/>
     </row>
     <row r="44" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J44" s="23" t="s">
+      <c r="J44" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="K44" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="L44" s="24" t="s">
+      <c r="K44" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L44" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="M44" s="24" t="s">
+      <c r="M44" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="24" t="s">
+      <c r="N44" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="24" t="s">
+      <c r="O44" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="P44" s="24" t="s">
+      <c r="P44" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Q44" s="24" t="s">
+      <c r="Q44" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="R44" s="24" t="s">
+      <c r="R44" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="S44" s="24" t="s">
+      <c r="S44" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="T44" s="25" t="s">
+      <c r="T44" s="18" t="s">
         <v>9</v>
       </c>
       <c r="U44" s="4"/>
@@ -7334,37 +7330,37 @@
       <c r="AC44" s="4"/>
     </row>
     <row r="45" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J45" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="K45" s="24">
-        <v>0</v>
-      </c>
-      <c r="L45" s="27">
-        <v>0</v>
-      </c>
-      <c r="M45" s="27">
-        <v>1</v>
-      </c>
-      <c r="N45" s="27">
-        <v>0</v>
-      </c>
-      <c r="O45" s="27">
-        <v>0</v>
-      </c>
-      <c r="P45" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="27">
-        <v>0</v>
-      </c>
-      <c r="R45" s="27">
-        <v>0</v>
-      </c>
-      <c r="S45" s="27">
-        <v>0</v>
-      </c>
-      <c r="T45" s="28">
+      <c r="J45" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K45" s="17">
+        <v>0</v>
+      </c>
+      <c r="L45" s="20">
+        <v>0</v>
+      </c>
+      <c r="M45" s="20">
+        <v>1</v>
+      </c>
+      <c r="N45" s="20">
+        <v>0</v>
+      </c>
+      <c r="O45" s="20">
+        <v>0</v>
+      </c>
+      <c r="P45" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="20">
+        <v>0</v>
+      </c>
+      <c r="R45" s="20">
+        <v>0</v>
+      </c>
+      <c r="S45" s="20">
+        <v>0</v>
+      </c>
+      <c r="T45" s="21">
         <v>0</v>
       </c>
       <c r="U45" s="4"/>
@@ -7389,37 +7385,37 @@
       <c r="AC45" s="4"/>
     </row>
     <row r="46" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J46" s="26" t="s">
+      <c r="J46" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="K46" s="27">
-        <v>0</v>
-      </c>
-      <c r="L46" s="24">
-        <v>0</v>
-      </c>
-      <c r="M46" s="27">
-        <v>1</v>
-      </c>
-      <c r="N46" s="27">
-        <v>0</v>
-      </c>
-      <c r="O46" s="27">
-        <v>0</v>
-      </c>
-      <c r="P46" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="27">
-        <v>0</v>
-      </c>
-      <c r="R46" s="27">
-        <v>0</v>
-      </c>
-      <c r="S46" s="27">
-        <v>0</v>
-      </c>
-      <c r="T46" s="28">
+      <c r="K46" s="20">
+        <v>0</v>
+      </c>
+      <c r="L46" s="17">
+        <v>0</v>
+      </c>
+      <c r="M46" s="20">
+        <v>1</v>
+      </c>
+      <c r="N46" s="20">
+        <v>0</v>
+      </c>
+      <c r="O46" s="20">
+        <v>0</v>
+      </c>
+      <c r="P46" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="20">
+        <v>0</v>
+      </c>
+      <c r="R46" s="20">
+        <v>0</v>
+      </c>
+      <c r="S46" s="20">
+        <v>0</v>
+      </c>
+      <c r="T46" s="21">
         <v>0</v>
       </c>
       <c r="U46" s="4"/>
@@ -7444,37 +7440,37 @@
       <c r="AC46" s="4"/>
     </row>
     <row r="47" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J47" s="26" t="s">
+      <c r="J47" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="27">
-        <v>1</v>
-      </c>
-      <c r="L47" s="27">
-        <v>1</v>
-      </c>
-      <c r="M47" s="24">
-        <v>0</v>
-      </c>
-      <c r="N47" s="27">
-        <v>1</v>
-      </c>
-      <c r="O47" s="27">
-        <v>1</v>
-      </c>
-      <c r="P47" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="27">
-        <v>1</v>
-      </c>
-      <c r="R47" s="27">
-        <v>1</v>
-      </c>
-      <c r="S47" s="27">
-        <v>1</v>
-      </c>
-      <c r="T47" s="28">
+      <c r="K47" s="20">
+        <v>1</v>
+      </c>
+      <c r="L47" s="20">
+        <v>1</v>
+      </c>
+      <c r="M47" s="17">
+        <v>0</v>
+      </c>
+      <c r="N47" s="20">
+        <v>1</v>
+      </c>
+      <c r="O47" s="20">
+        <v>1</v>
+      </c>
+      <c r="P47" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="20">
+        <v>1</v>
+      </c>
+      <c r="R47" s="20">
+        <v>1</v>
+      </c>
+      <c r="S47" s="20">
+        <v>1</v>
+      </c>
+      <c r="T47" s="21">
         <v>1</v>
       </c>
       <c r="U47" s="4"/>
@@ -7499,37 +7495,37 @@
       <c r="AC47" s="4"/>
     </row>
     <row r="48" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J48" s="26" t="s">
+      <c r="J48" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="27">
-        <v>0</v>
-      </c>
-      <c r="L48" s="27">
-        <v>0</v>
-      </c>
-      <c r="M48" s="27">
-        <v>1</v>
-      </c>
-      <c r="N48" s="24">
-        <v>0</v>
-      </c>
-      <c r="O48" s="27">
-        <v>0</v>
-      </c>
-      <c r="P48" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="27">
-        <v>0</v>
-      </c>
-      <c r="R48" s="27">
-        <v>0</v>
-      </c>
-      <c r="S48" s="27">
-        <v>1</v>
-      </c>
-      <c r="T48" s="28">
+      <c r="K48" s="20">
+        <v>0</v>
+      </c>
+      <c r="L48" s="20">
+        <v>0</v>
+      </c>
+      <c r="M48" s="20">
+        <v>1</v>
+      </c>
+      <c r="N48" s="17">
+        <v>0</v>
+      </c>
+      <c r="O48" s="20">
+        <v>0</v>
+      </c>
+      <c r="P48" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="20">
+        <v>0</v>
+      </c>
+      <c r="R48" s="20">
+        <v>0</v>
+      </c>
+      <c r="S48" s="20">
+        <v>1</v>
+      </c>
+      <c r="T48" s="21">
         <v>0</v>
       </c>
       <c r="U48" s="4"/>
@@ -7554,37 +7550,37 @@
       <c r="AC48" s="4"/>
     </row>
     <row r="49" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J49" s="26" t="s">
+      <c r="J49" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="27">
-        <v>0</v>
-      </c>
-      <c r="L49" s="27">
-        <v>0</v>
-      </c>
-      <c r="M49" s="27">
-        <v>1</v>
-      </c>
-      <c r="N49" s="27">
-        <v>0</v>
-      </c>
-      <c r="O49" s="24">
-        <v>0</v>
-      </c>
-      <c r="P49" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="27">
-        <v>1</v>
-      </c>
-      <c r="R49" s="27">
-        <v>0</v>
-      </c>
-      <c r="S49" s="27">
-        <v>0</v>
-      </c>
-      <c r="T49" s="28">
+      <c r="K49" s="20">
+        <v>0</v>
+      </c>
+      <c r="L49" s="20">
+        <v>0</v>
+      </c>
+      <c r="M49" s="20">
+        <v>1</v>
+      </c>
+      <c r="N49" s="20">
+        <v>0</v>
+      </c>
+      <c r="O49" s="17">
+        <v>0</v>
+      </c>
+      <c r="P49" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="20">
+        <v>1</v>
+      </c>
+      <c r="R49" s="20">
+        <v>0</v>
+      </c>
+      <c r="S49" s="20">
+        <v>0</v>
+      </c>
+      <c r="T49" s="21">
         <v>1</v>
       </c>
       <c r="U49" s="4" t="s">
@@ -7618,37 +7614,37 @@
       </c>
     </row>
     <row r="50" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J50" s="26" t="s">
+      <c r="J50" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K50" s="27">
-        <v>0</v>
-      </c>
-      <c r="L50" s="27">
-        <v>0</v>
-      </c>
-      <c r="M50" s="27">
-        <v>1</v>
-      </c>
-      <c r="N50" s="27">
-        <v>0</v>
-      </c>
-      <c r="O50" s="27">
-        <v>0</v>
-      </c>
-      <c r="P50" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="27">
-        <v>0</v>
-      </c>
-      <c r="R50" s="27">
-        <v>0</v>
-      </c>
-      <c r="S50" s="27">
-        <v>0</v>
-      </c>
-      <c r="T50" s="28">
+      <c r="K50" s="20">
+        <v>0</v>
+      </c>
+      <c r="L50" s="20">
+        <v>0</v>
+      </c>
+      <c r="M50" s="20">
+        <v>1</v>
+      </c>
+      <c r="N50" s="20">
+        <v>0</v>
+      </c>
+      <c r="O50" s="20">
+        <v>0</v>
+      </c>
+      <c r="P50" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="20">
+        <v>0</v>
+      </c>
+      <c r="R50" s="20">
+        <v>0</v>
+      </c>
+      <c r="S50" s="20">
+        <v>0</v>
+      </c>
+      <c r="T50" s="21">
         <v>1</v>
       </c>
       <c r="U50" s="4"/>
@@ -7673,37 +7669,37 @@
       <c r="AC50" s="4"/>
     </row>
     <row r="51" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J51" s="26" t="s">
+      <c r="J51" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K51" s="27">
-        <v>0</v>
-      </c>
-      <c r="L51" s="27">
-        <v>0</v>
-      </c>
-      <c r="M51" s="27">
-        <v>1</v>
-      </c>
-      <c r="N51" s="27">
-        <v>0</v>
-      </c>
-      <c r="O51" s="27">
-        <v>1</v>
-      </c>
-      <c r="P51" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="24">
-        <v>0</v>
-      </c>
-      <c r="R51" s="27">
-        <v>0</v>
-      </c>
-      <c r="S51" s="27">
-        <v>0</v>
-      </c>
-      <c r="T51" s="28">
+      <c r="K51" s="20">
+        <v>0</v>
+      </c>
+      <c r="L51" s="20">
+        <v>0</v>
+      </c>
+      <c r="M51" s="20">
+        <v>1</v>
+      </c>
+      <c r="N51" s="20">
+        <v>0</v>
+      </c>
+      <c r="O51" s="20">
+        <v>1</v>
+      </c>
+      <c r="P51" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="17">
+        <v>0</v>
+      </c>
+      <c r="R51" s="20">
+        <v>0</v>
+      </c>
+      <c r="S51" s="20">
+        <v>0</v>
+      </c>
+      <c r="T51" s="21">
         <v>1</v>
       </c>
       <c r="U51" s="4"/>
@@ -7728,37 +7724,37 @@
       <c r="AC51" s="4"/>
     </row>
     <row r="52" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J52" s="26" t="s">
+      <c r="J52" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K52" s="27">
-        <v>0</v>
-      </c>
-      <c r="L52" s="27">
-        <v>0</v>
-      </c>
-      <c r="M52" s="27">
-        <v>1</v>
-      </c>
-      <c r="N52" s="27">
-        <v>0</v>
-      </c>
-      <c r="O52" s="27">
-        <v>0</v>
-      </c>
-      <c r="P52" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="27">
-        <v>0</v>
-      </c>
-      <c r="R52" s="24">
-        <v>0</v>
-      </c>
-      <c r="S52" s="27">
-        <v>0</v>
-      </c>
-      <c r="T52" s="28">
+      <c r="K52" s="20">
+        <v>0</v>
+      </c>
+      <c r="L52" s="20">
+        <v>0</v>
+      </c>
+      <c r="M52" s="20">
+        <v>1</v>
+      </c>
+      <c r="N52" s="20">
+        <v>0</v>
+      </c>
+      <c r="O52" s="20">
+        <v>0</v>
+      </c>
+      <c r="P52" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="20">
+        <v>0</v>
+      </c>
+      <c r="R52" s="17">
+        <v>0</v>
+      </c>
+      <c r="S52" s="20">
+        <v>0</v>
+      </c>
+      <c r="T52" s="21">
         <v>0</v>
       </c>
       <c r="U52" s="4"/>
@@ -7783,37 +7779,37 @@
       <c r="AC52" s="4"/>
     </row>
     <row r="53" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J53" s="26" t="s">
+      <c r="J53" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K53" s="27">
-        <v>0</v>
-      </c>
-      <c r="L53" s="27">
-        <v>0</v>
-      </c>
-      <c r="M53" s="27">
-        <v>1</v>
-      </c>
-      <c r="N53" s="27">
-        <v>1</v>
-      </c>
-      <c r="O53" s="27">
-        <v>0</v>
-      </c>
-      <c r="P53" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="27">
-        <v>0</v>
-      </c>
-      <c r="R53" s="27">
-        <v>0</v>
-      </c>
-      <c r="S53" s="24">
-        <v>0</v>
-      </c>
-      <c r="T53" s="28">
+      <c r="K53" s="20">
+        <v>0</v>
+      </c>
+      <c r="L53" s="20">
+        <v>0</v>
+      </c>
+      <c r="M53" s="20">
+        <v>1</v>
+      </c>
+      <c r="N53" s="20">
+        <v>1</v>
+      </c>
+      <c r="O53" s="20">
+        <v>0</v>
+      </c>
+      <c r="P53" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="20">
+        <v>0</v>
+      </c>
+      <c r="R53" s="20">
+        <v>0</v>
+      </c>
+      <c r="S53" s="17">
+        <v>0</v>
+      </c>
+      <c r="T53" s="21">
         <v>0</v>
       </c>
       <c r="U53" s="4"/>
@@ -7838,37 +7834,37 @@
       <c r="AC53" s="4"/>
     </row>
     <row r="54" spans="10:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J54" s="29" t="s">
+      <c r="J54" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K54" s="30">
-        <v>0</v>
-      </c>
-      <c r="L54" s="30">
-        <v>0</v>
-      </c>
-      <c r="M54" s="30">
-        <v>1</v>
-      </c>
-      <c r="N54" s="30">
-        <v>0</v>
-      </c>
-      <c r="O54" s="30">
-        <v>0</v>
-      </c>
-      <c r="P54" s="30">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="30">
-        <v>1</v>
-      </c>
-      <c r="R54" s="30">
-        <v>0</v>
-      </c>
-      <c r="S54" s="30">
-        <v>0</v>
-      </c>
-      <c r="T54" s="31">
+      <c r="K54" s="23">
+        <v>0</v>
+      </c>
+      <c r="L54" s="23">
+        <v>0</v>
+      </c>
+      <c r="M54" s="23">
+        <v>1</v>
+      </c>
+      <c r="N54" s="23">
+        <v>0</v>
+      </c>
+      <c r="O54" s="23">
+        <v>0</v>
+      </c>
+      <c r="P54" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="23">
+        <v>1</v>
+      </c>
+      <c r="R54" s="23">
+        <v>0</v>
+      </c>
+      <c r="S54" s="23">
+        <v>0</v>
+      </c>
+      <c r="T54" s="24">
         <v>0</v>
       </c>
       <c r="U54" s="4"/>
@@ -7962,37 +7958,37 @@
       <c r="AC57" s="4"/>
     </row>
     <row r="58" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J58" s="23" t="s">
+      <c r="J58" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="K58" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="L58" s="24" t="s">
+      <c r="K58" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L58" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="M58" s="24" t="s">
+      <c r="M58" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="24" t="s">
+      <c r="N58" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="24" t="s">
+      <c r="O58" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="P58" s="24" t="s">
+      <c r="P58" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Q58" s="24" t="s">
+      <c r="Q58" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="R58" s="24" t="s">
+      <c r="R58" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="S58" s="24" t="s">
+      <c r="S58" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="T58" s="25" t="s">
+      <c r="T58" s="18" t="s">
         <v>9</v>
       </c>
       <c r="U58" s="4"/>
@@ -8006,37 +8002,37 @@
       <c r="AC58" s="4"/>
     </row>
     <row r="59" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J59" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="K59" s="24">
-        <v>0</v>
-      </c>
-      <c r="L59" s="27">
-        <v>0</v>
-      </c>
-      <c r="M59" s="27">
-        <v>1</v>
-      </c>
-      <c r="N59" s="27">
-        <v>0</v>
-      </c>
-      <c r="O59" s="27">
-        <v>0</v>
-      </c>
-      <c r="P59" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="27">
-        <v>0</v>
-      </c>
-      <c r="R59" s="27">
-        <v>0</v>
-      </c>
-      <c r="S59" s="27">
-        <v>0</v>
-      </c>
-      <c r="T59" s="28">
+      <c r="J59" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K59" s="17">
+        <v>0</v>
+      </c>
+      <c r="L59" s="20">
+        <v>0</v>
+      </c>
+      <c r="M59" s="20">
+        <v>1</v>
+      </c>
+      <c r="N59" s="20">
+        <v>0</v>
+      </c>
+      <c r="O59" s="20">
+        <v>0</v>
+      </c>
+      <c r="P59" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="20">
+        <v>0</v>
+      </c>
+      <c r="R59" s="20">
+        <v>0</v>
+      </c>
+      <c r="S59" s="20">
+        <v>0</v>
+      </c>
+      <c r="T59" s="21">
         <v>0</v>
       </c>
       <c r="U59" s="4"/>
@@ -8061,37 +8057,37 @@
       <c r="AC59" s="4"/>
     </row>
     <row r="60" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J60" s="26" t="s">
+      <c r="J60" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="K60" s="27">
-        <v>0</v>
-      </c>
-      <c r="L60" s="24">
-        <v>0</v>
-      </c>
-      <c r="M60" s="27">
-        <v>1</v>
-      </c>
-      <c r="N60" s="27">
-        <v>0</v>
-      </c>
-      <c r="O60" s="27">
-        <v>0</v>
-      </c>
-      <c r="P60" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="27">
-        <v>0</v>
-      </c>
-      <c r="R60" s="27">
-        <v>0</v>
-      </c>
-      <c r="S60" s="27">
-        <v>0</v>
-      </c>
-      <c r="T60" s="28">
+      <c r="K60" s="20">
+        <v>0</v>
+      </c>
+      <c r="L60" s="17">
+        <v>0</v>
+      </c>
+      <c r="M60" s="20">
+        <v>1</v>
+      </c>
+      <c r="N60" s="20">
+        <v>0</v>
+      </c>
+      <c r="O60" s="20">
+        <v>0</v>
+      </c>
+      <c r="P60" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="20">
+        <v>0</v>
+      </c>
+      <c r="R60" s="20">
+        <v>0</v>
+      </c>
+      <c r="S60" s="20">
+        <v>0</v>
+      </c>
+      <c r="T60" s="21">
         <v>0</v>
       </c>
       <c r="U60" s="4"/>
@@ -8116,37 +8112,37 @@
       <c r="AC60" s="4"/>
     </row>
     <row r="61" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J61" s="26" t="s">
+      <c r="J61" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="K61" s="27">
-        <v>1</v>
-      </c>
-      <c r="L61" s="27">
-        <v>1</v>
-      </c>
-      <c r="M61" s="24">
-        <v>0</v>
-      </c>
-      <c r="N61" s="27">
-        <v>1</v>
-      </c>
-      <c r="O61" s="27">
-        <v>1</v>
-      </c>
-      <c r="P61" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="27">
-        <v>1</v>
-      </c>
-      <c r="R61" s="27">
-        <v>1</v>
-      </c>
-      <c r="S61" s="27">
-        <v>1</v>
-      </c>
-      <c r="T61" s="28">
+      <c r="K61" s="20">
+        <v>1</v>
+      </c>
+      <c r="L61" s="20">
+        <v>1</v>
+      </c>
+      <c r="M61" s="17">
+        <v>0</v>
+      </c>
+      <c r="N61" s="20">
+        <v>1</v>
+      </c>
+      <c r="O61" s="20">
+        <v>1</v>
+      </c>
+      <c r="P61" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="20">
+        <v>1</v>
+      </c>
+      <c r="R61" s="20">
+        <v>1</v>
+      </c>
+      <c r="S61" s="20">
+        <v>1</v>
+      </c>
+      <c r="T61" s="21">
         <v>1</v>
       </c>
       <c r="U61" s="4"/>
@@ -8171,37 +8167,37 @@
       <c r="AC61" s="4"/>
     </row>
     <row r="62" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J62" s="26" t="s">
+      <c r="J62" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="27">
-        <v>0</v>
-      </c>
-      <c r="L62" s="27">
-        <v>0</v>
-      </c>
-      <c r="M62" s="27">
-        <v>1</v>
-      </c>
-      <c r="N62" s="24">
-        <v>0</v>
-      </c>
-      <c r="O62" s="27">
-        <v>0</v>
-      </c>
-      <c r="P62" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="27">
-        <v>0</v>
-      </c>
-      <c r="R62" s="27">
-        <v>0</v>
-      </c>
-      <c r="S62" s="27">
-        <v>1</v>
-      </c>
-      <c r="T62" s="28">
+      <c r="K62" s="20">
+        <v>0</v>
+      </c>
+      <c r="L62" s="20">
+        <v>0</v>
+      </c>
+      <c r="M62" s="20">
+        <v>1</v>
+      </c>
+      <c r="N62" s="17">
+        <v>0</v>
+      </c>
+      <c r="O62" s="20">
+        <v>0</v>
+      </c>
+      <c r="P62" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="20">
+        <v>0</v>
+      </c>
+      <c r="R62" s="20">
+        <v>0</v>
+      </c>
+      <c r="S62" s="20">
+        <v>1</v>
+      </c>
+      <c r="T62" s="21">
         <v>0</v>
       </c>
       <c r="U62" s="4"/>
@@ -8226,37 +8222,37 @@
       <c r="AC62" s="4"/>
     </row>
     <row r="63" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J63" s="26" t="s">
+      <c r="J63" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K63" s="27">
-        <v>0</v>
-      </c>
-      <c r="L63" s="27">
-        <v>0</v>
-      </c>
-      <c r="M63" s="27">
-        <v>1</v>
-      </c>
-      <c r="N63" s="27">
-        <v>0</v>
-      </c>
-      <c r="O63" s="24">
-        <v>0</v>
-      </c>
-      <c r="P63" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="27">
-        <v>1</v>
-      </c>
-      <c r="R63" s="27">
-        <v>0</v>
-      </c>
-      <c r="S63" s="27">
-        <v>0</v>
-      </c>
-      <c r="T63" s="28">
+      <c r="K63" s="20">
+        <v>0</v>
+      </c>
+      <c r="L63" s="20">
+        <v>0</v>
+      </c>
+      <c r="M63" s="20">
+        <v>1</v>
+      </c>
+      <c r="N63" s="20">
+        <v>0</v>
+      </c>
+      <c r="O63" s="17">
+        <v>0</v>
+      </c>
+      <c r="P63" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="20">
+        <v>1</v>
+      </c>
+      <c r="R63" s="20">
+        <v>0</v>
+      </c>
+      <c r="S63" s="20">
+        <v>0</v>
+      </c>
+      <c r="T63" s="21">
         <v>1</v>
       </c>
       <c r="U63" s="4" t="s">
@@ -8290,37 +8286,37 @@
       </c>
     </row>
     <row r="64" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J64" s="26" t="s">
+      <c r="J64" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K64" s="27">
-        <v>0</v>
-      </c>
-      <c r="L64" s="27">
-        <v>0</v>
-      </c>
-      <c r="M64" s="27">
-        <v>1</v>
-      </c>
-      <c r="N64" s="27">
-        <v>0</v>
-      </c>
-      <c r="O64" s="27">
-        <v>0</v>
-      </c>
-      <c r="P64" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="27">
-        <v>0</v>
-      </c>
-      <c r="R64" s="27">
-        <v>0</v>
-      </c>
-      <c r="S64" s="27">
-        <v>0</v>
-      </c>
-      <c r="T64" s="28">
+      <c r="K64" s="20">
+        <v>0</v>
+      </c>
+      <c r="L64" s="20">
+        <v>0</v>
+      </c>
+      <c r="M64" s="20">
+        <v>1</v>
+      </c>
+      <c r="N64" s="20">
+        <v>0</v>
+      </c>
+      <c r="O64" s="20">
+        <v>0</v>
+      </c>
+      <c r="P64" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="20">
+        <v>0</v>
+      </c>
+      <c r="R64" s="20">
+        <v>0</v>
+      </c>
+      <c r="S64" s="20">
+        <v>0</v>
+      </c>
+      <c r="T64" s="21">
         <v>1</v>
       </c>
       <c r="U64" s="4"/>
@@ -8345,37 +8341,37 @@
       <c r="AC64" s="4"/>
     </row>
     <row r="65" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J65" s="26" t="s">
+      <c r="J65" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K65" s="27">
-        <v>0</v>
-      </c>
-      <c r="L65" s="27">
-        <v>0</v>
-      </c>
-      <c r="M65" s="27">
-        <v>1</v>
-      </c>
-      <c r="N65" s="27">
-        <v>0</v>
-      </c>
-      <c r="O65" s="27">
-        <v>1</v>
-      </c>
-      <c r="P65" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="24">
-        <v>0</v>
-      </c>
-      <c r="R65" s="27">
-        <v>0</v>
-      </c>
-      <c r="S65" s="27">
-        <v>0</v>
-      </c>
-      <c r="T65" s="28">
+      <c r="K65" s="20">
+        <v>0</v>
+      </c>
+      <c r="L65" s="20">
+        <v>0</v>
+      </c>
+      <c r="M65" s="20">
+        <v>1</v>
+      </c>
+      <c r="N65" s="20">
+        <v>0</v>
+      </c>
+      <c r="O65" s="20">
+        <v>1</v>
+      </c>
+      <c r="P65" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="17">
+        <v>0</v>
+      </c>
+      <c r="R65" s="20">
+        <v>0</v>
+      </c>
+      <c r="S65" s="20">
+        <v>0</v>
+      </c>
+      <c r="T65" s="21">
         <v>1</v>
       </c>
       <c r="U65" s="4"/>
@@ -8400,37 +8396,37 @@
       <c r="AC65" s="4"/>
     </row>
     <row r="66" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J66" s="26" t="s">
+      <c r="J66" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K66" s="27">
-        <v>0</v>
-      </c>
-      <c r="L66" s="27">
-        <v>0</v>
-      </c>
-      <c r="M66" s="27">
-        <v>1</v>
-      </c>
-      <c r="N66" s="27">
-        <v>0</v>
-      </c>
-      <c r="O66" s="27">
-        <v>0</v>
-      </c>
-      <c r="P66" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="27">
-        <v>0</v>
-      </c>
-      <c r="R66" s="24">
-        <v>0</v>
-      </c>
-      <c r="S66" s="27">
-        <v>0</v>
-      </c>
-      <c r="T66" s="28">
+      <c r="K66" s="20">
+        <v>0</v>
+      </c>
+      <c r="L66" s="20">
+        <v>0</v>
+      </c>
+      <c r="M66" s="20">
+        <v>1</v>
+      </c>
+      <c r="N66" s="20">
+        <v>0</v>
+      </c>
+      <c r="O66" s="20">
+        <v>0</v>
+      </c>
+      <c r="P66" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="20">
+        <v>0</v>
+      </c>
+      <c r="R66" s="17">
+        <v>0</v>
+      </c>
+      <c r="S66" s="20">
+        <v>0</v>
+      </c>
+      <c r="T66" s="21">
         <v>0</v>
       </c>
       <c r="U66" s="4"/>
@@ -8455,37 +8451,37 @@
       <c r="AC66" s="4"/>
     </row>
     <row r="67" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J67" s="26" t="s">
+      <c r="J67" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K67" s="27">
-        <v>0</v>
-      </c>
-      <c r="L67" s="27">
-        <v>0</v>
-      </c>
-      <c r="M67" s="27">
-        <v>1</v>
-      </c>
-      <c r="N67" s="27">
-        <v>1</v>
-      </c>
-      <c r="O67" s="27">
-        <v>0</v>
-      </c>
-      <c r="P67" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="27">
-        <v>0</v>
-      </c>
-      <c r="R67" s="27">
-        <v>0</v>
-      </c>
-      <c r="S67" s="24">
-        <v>0</v>
-      </c>
-      <c r="T67" s="28">
+      <c r="K67" s="20">
+        <v>0</v>
+      </c>
+      <c r="L67" s="20">
+        <v>0</v>
+      </c>
+      <c r="M67" s="20">
+        <v>1</v>
+      </c>
+      <c r="N67" s="20">
+        <v>1</v>
+      </c>
+      <c r="O67" s="20">
+        <v>0</v>
+      </c>
+      <c r="P67" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="20">
+        <v>0</v>
+      </c>
+      <c r="R67" s="20">
+        <v>0</v>
+      </c>
+      <c r="S67" s="17">
+        <v>0</v>
+      </c>
+      <c r="T67" s="21">
         <v>0</v>
       </c>
       <c r="U67" s="4"/>
@@ -8510,37 +8506,37 @@
       <c r="AC67" s="4"/>
     </row>
     <row r="68" spans="10:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J68" s="29" t="s">
+      <c r="J68" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K68" s="30">
-        <v>0</v>
-      </c>
-      <c r="L68" s="30">
-        <v>0</v>
-      </c>
-      <c r="M68" s="30">
-        <v>1</v>
-      </c>
-      <c r="N68" s="30">
-        <v>0</v>
-      </c>
-      <c r="O68" s="30">
-        <v>0</v>
-      </c>
-      <c r="P68" s="30">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="30">
-        <v>1</v>
-      </c>
-      <c r="R68" s="30">
-        <v>0</v>
-      </c>
-      <c r="S68" s="30">
-        <v>0</v>
-      </c>
-      <c r="T68" s="31">
+      <c r="K68" s="23">
+        <v>0</v>
+      </c>
+      <c r="L68" s="23">
+        <v>0</v>
+      </c>
+      <c r="M68" s="23">
+        <v>1</v>
+      </c>
+      <c r="N68" s="23">
+        <v>0</v>
+      </c>
+      <c r="O68" s="23">
+        <v>0</v>
+      </c>
+      <c r="P68" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="23">
+        <v>1</v>
+      </c>
+      <c r="R68" s="23">
+        <v>0</v>
+      </c>
+      <c r="S68" s="23">
+        <v>0</v>
+      </c>
+      <c r="T68" s="24">
         <v>0</v>
       </c>
       <c r="U68" s="4"/>
@@ -8634,37 +8630,37 @@
       <c r="AC71" s="4"/>
     </row>
     <row r="72" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J72" s="23" t="s">
+      <c r="J72" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="K72" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="L72" s="24" t="s">
+      <c r="K72" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L72" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="M72" s="24" t="s">
+      <c r="M72" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="24" t="s">
+      <c r="N72" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="O72" s="24" t="s">
+      <c r="O72" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="P72" s="24" t="s">
+      <c r="P72" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Q72" s="24" t="s">
+      <c r="Q72" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="R72" s="24" t="s">
+      <c r="R72" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="S72" s="24" t="s">
+      <c r="S72" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="T72" s="25" t="s">
+      <c r="T72" s="18" t="s">
         <v>9</v>
       </c>
       <c r="U72" s="4"/>
@@ -8678,37 +8674,37 @@
       <c r="AC72" s="4"/>
     </row>
     <row r="73" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J73" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="K73" s="24">
-        <v>0</v>
-      </c>
-      <c r="L73" s="27">
-        <v>0</v>
-      </c>
-      <c r="M73" s="27">
-        <v>1</v>
-      </c>
-      <c r="N73" s="27">
-        <v>0</v>
-      </c>
-      <c r="O73" s="27">
-        <v>0</v>
-      </c>
-      <c r="P73" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="27">
-        <v>0</v>
-      </c>
-      <c r="R73" s="27">
-        <v>0</v>
-      </c>
-      <c r="S73" s="27">
-        <v>0</v>
-      </c>
-      <c r="T73" s="28">
+      <c r="J73" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K73" s="17">
+        <v>0</v>
+      </c>
+      <c r="L73" s="20">
+        <v>0</v>
+      </c>
+      <c r="M73" s="20">
+        <v>1</v>
+      </c>
+      <c r="N73" s="20">
+        <v>0</v>
+      </c>
+      <c r="O73" s="20">
+        <v>0</v>
+      </c>
+      <c r="P73" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="20">
+        <v>0</v>
+      </c>
+      <c r="R73" s="20">
+        <v>0</v>
+      </c>
+      <c r="S73" s="20">
+        <v>0</v>
+      </c>
+      <c r="T73" s="21">
         <v>0</v>
       </c>
       <c r="U73" s="4"/>
@@ -8721,7 +8717,7 @@
         <v>0.67221515308029922</v>
       </c>
       <c r="Y73" s="4"/>
-      <c r="Z73" s="33">
+      <c r="Z73" s="26">
         <f>X73/$X$84</f>
         <v>0.1830272240812516</v>
       </c>
@@ -8733,37 +8729,37 @@
       <c r="AC73" s="4"/>
     </row>
     <row r="74" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J74" s="26" t="s">
+      <c r="J74" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="K74" s="27">
-        <v>0</v>
-      </c>
-      <c r="L74" s="24">
-        <v>0</v>
-      </c>
-      <c r="M74" s="27">
-        <v>1</v>
-      </c>
-      <c r="N74" s="27">
-        <v>0</v>
-      </c>
-      <c r="O74" s="27">
-        <v>0</v>
-      </c>
-      <c r="P74" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="27">
-        <v>0</v>
-      </c>
-      <c r="R74" s="27">
-        <v>0</v>
-      </c>
-      <c r="S74" s="27">
-        <v>0</v>
-      </c>
-      <c r="T74" s="28">
+      <c r="K74" s="20">
+        <v>0</v>
+      </c>
+      <c r="L74" s="17">
+        <v>0</v>
+      </c>
+      <c r="M74" s="20">
+        <v>1</v>
+      </c>
+      <c r="N74" s="20">
+        <v>0</v>
+      </c>
+      <c r="O74" s="20">
+        <v>0</v>
+      </c>
+      <c r="P74" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="20">
+        <v>0</v>
+      </c>
+      <c r="R74" s="20">
+        <v>0</v>
+      </c>
+      <c r="S74" s="20">
+        <v>0</v>
+      </c>
+      <c r="T74" s="21">
         <v>0</v>
       </c>
       <c r="U74" s="4"/>
@@ -8776,7 +8772,7 @@
         <v>0.67221515308029922</v>
       </c>
       <c r="Y74" s="4"/>
-      <c r="Z74" s="33">
+      <c r="Z74" s="26">
         <f t="shared" ref="Z74:Z82" si="11">X74/$X$84</f>
         <v>0.1830272240812516</v>
       </c>
@@ -8788,37 +8784,37 @@
       <c r="AC74" s="4"/>
     </row>
     <row r="75" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J75" s="26" t="s">
+      <c r="J75" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="K75" s="27">
-        <v>1</v>
-      </c>
-      <c r="L75" s="27">
-        <v>1</v>
-      </c>
-      <c r="M75" s="24">
-        <v>0</v>
-      </c>
-      <c r="N75" s="27">
-        <v>1</v>
-      </c>
-      <c r="O75" s="27">
-        <v>1</v>
-      </c>
-      <c r="P75" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="27">
-        <v>1</v>
-      </c>
-      <c r="R75" s="27">
-        <v>1</v>
-      </c>
-      <c r="S75" s="27">
-        <v>1</v>
-      </c>
-      <c r="T75" s="28">
+      <c r="K75" s="20">
+        <v>1</v>
+      </c>
+      <c r="L75" s="20">
+        <v>1</v>
+      </c>
+      <c r="M75" s="17">
+        <v>0</v>
+      </c>
+      <c r="N75" s="20">
+        <v>1</v>
+      </c>
+      <c r="O75" s="20">
+        <v>1</v>
+      </c>
+      <c r="P75" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="20">
+        <v>1</v>
+      </c>
+      <c r="R75" s="20">
+        <v>1</v>
+      </c>
+      <c r="S75" s="20">
+        <v>1</v>
+      </c>
+      <c r="T75" s="21">
         <v>1</v>
       </c>
       <c r="U75" s="4"/>
@@ -8831,7 +8827,7 @@
         <v>2.1063766963034851</v>
       </c>
       <c r="Y75" s="4"/>
-      <c r="Z75" s="33">
+      <c r="Z75" s="26">
         <f t="shared" si="11"/>
         <v>0.57351322389457027</v>
       </c>
@@ -8843,37 +8839,37 @@
       <c r="AC75" s="4"/>
     </row>
     <row r="76" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J76" s="26" t="s">
+      <c r="J76" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K76" s="27">
-        <v>0</v>
-      </c>
-      <c r="L76" s="27">
-        <v>0</v>
-      </c>
-      <c r="M76" s="27">
-        <v>1</v>
-      </c>
-      <c r="N76" s="24">
-        <v>0</v>
-      </c>
-      <c r="O76" s="27">
-        <v>0</v>
-      </c>
-      <c r="P76" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="27">
-        <v>0</v>
-      </c>
-      <c r="R76" s="27">
-        <v>0</v>
-      </c>
-      <c r="S76" s="27">
-        <v>1</v>
-      </c>
-      <c r="T76" s="28">
+      <c r="K76" s="20">
+        <v>0</v>
+      </c>
+      <c r="L76" s="20">
+        <v>0</v>
+      </c>
+      <c r="M76" s="20">
+        <v>1</v>
+      </c>
+      <c r="N76" s="17">
+        <v>0</v>
+      </c>
+      <c r="O76" s="20">
+        <v>0</v>
+      </c>
+      <c r="P76" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="20">
+        <v>0</v>
+      </c>
+      <c r="R76" s="20">
+        <v>0</v>
+      </c>
+      <c r="S76" s="20">
+        <v>1</v>
+      </c>
+      <c r="T76" s="21">
         <v>0</v>
       </c>
       <c r="U76" s="4"/>
@@ -8886,7 +8882,7 @@
         <v>0.88603187225229374</v>
       </c>
       <c r="Y76" s="4"/>
-      <c r="Z76" s="33">
+      <c r="Z76" s="26">
         <f t="shared" si="11"/>
         <v>0.2412441214434804</v>
       </c>
@@ -8898,37 +8894,37 @@
       <c r="AC76" s="4"/>
     </row>
     <row r="77" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J77" s="26" t="s">
+      <c r="J77" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K77" s="27">
-        <v>0</v>
-      </c>
-      <c r="L77" s="27">
-        <v>0</v>
-      </c>
-      <c r="M77" s="27">
-        <v>1</v>
-      </c>
-      <c r="N77" s="27">
-        <v>0</v>
-      </c>
-      <c r="O77" s="24">
-        <v>0</v>
-      </c>
-      <c r="P77" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="27">
-        <v>1</v>
-      </c>
-      <c r="R77" s="27">
-        <v>0</v>
-      </c>
-      <c r="S77" s="27">
-        <v>0</v>
-      </c>
-      <c r="T77" s="28">
+      <c r="K77" s="20">
+        <v>0</v>
+      </c>
+      <c r="L77" s="20">
+        <v>0</v>
+      </c>
+      <c r="M77" s="20">
+        <v>1</v>
+      </c>
+      <c r="N77" s="20">
+        <v>0</v>
+      </c>
+      <c r="O77" s="17">
+        <v>0</v>
+      </c>
+      <c r="P77" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="20">
+        <v>1</v>
+      </c>
+      <c r="R77" s="20">
+        <v>0</v>
+      </c>
+      <c r="S77" s="20">
+        <v>0</v>
+      </c>
+      <c r="T77" s="21">
         <v>1</v>
       </c>
       <c r="U77" s="4" t="s">
@@ -8947,7 +8943,7 @@
       <c r="Y77" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="Z77" s="33">
+      <c r="Z77" s="26">
         <f t="shared" si="11"/>
         <v>0.36368109743070975</v>
       </c>
@@ -8962,37 +8958,37 @@
       </c>
     </row>
     <row r="78" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J78" s="26" t="s">
+      <c r="J78" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K78" s="27">
-        <v>0</v>
-      </c>
-      <c r="L78" s="27">
-        <v>0</v>
-      </c>
-      <c r="M78" s="27">
-        <v>1</v>
-      </c>
-      <c r="N78" s="27">
-        <v>0</v>
-      </c>
-      <c r="O78" s="27">
-        <v>0</v>
-      </c>
-      <c r="P78" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="27">
-        <v>0</v>
-      </c>
-      <c r="R78" s="27">
-        <v>0</v>
-      </c>
-      <c r="S78" s="27">
-        <v>0</v>
-      </c>
-      <c r="T78" s="28">
+      <c r="K78" s="20">
+        <v>0</v>
+      </c>
+      <c r="L78" s="20">
+        <v>0</v>
+      </c>
+      <c r="M78" s="20">
+        <v>1</v>
+      </c>
+      <c r="N78" s="20">
+        <v>0</v>
+      </c>
+      <c r="O78" s="20">
+        <v>0</v>
+      </c>
+      <c r="P78" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="20">
+        <v>0</v>
+      </c>
+      <c r="R78" s="20">
+        <v>0</v>
+      </c>
+      <c r="S78" s="20">
+        <v>0</v>
+      </c>
+      <c r="T78" s="21">
         <v>1</v>
       </c>
       <c r="U78" s="4"/>
@@ -9005,7 +9001,7 @@
         <v>0.99524760650561461</v>
       </c>
       <c r="Y78" s="4"/>
-      <c r="Z78" s="33">
+      <c r="Z78" s="26">
         <f t="shared" si="11"/>
         <v>0.27098081002418717</v>
       </c>
@@ -9017,37 +9013,37 @@
       <c r="AC78" s="4"/>
     </row>
     <row r="79" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J79" s="26" t="s">
+      <c r="J79" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K79" s="27">
-        <v>0</v>
-      </c>
-      <c r="L79" s="27">
-        <v>0</v>
-      </c>
-      <c r="M79" s="27">
-        <v>1</v>
-      </c>
-      <c r="N79" s="27">
-        <v>0</v>
-      </c>
-      <c r="O79" s="27">
-        <v>1</v>
-      </c>
-      <c r="P79" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="24">
-        <v>0</v>
-      </c>
-      <c r="R79" s="27">
-        <v>0</v>
-      </c>
-      <c r="S79" s="27">
-        <v>0</v>
-      </c>
-      <c r="T79" s="28">
+      <c r="K79" s="20">
+        <v>0</v>
+      </c>
+      <c r="L79" s="20">
+        <v>0</v>
+      </c>
+      <c r="M79" s="20">
+        <v>1</v>
+      </c>
+      <c r="N79" s="20">
+        <v>0</v>
+      </c>
+      <c r="O79" s="20">
+        <v>1</v>
+      </c>
+      <c r="P79" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="17">
+        <v>0</v>
+      </c>
+      <c r="R79" s="20">
+        <v>0</v>
+      </c>
+      <c r="S79" s="20">
+        <v>0</v>
+      </c>
+      <c r="T79" s="21">
         <v>1</v>
       </c>
       <c r="U79" s="4"/>
@@ -9060,7 +9056,7 @@
         <v>1.3357135574173757</v>
       </c>
       <c r="Y79" s="4"/>
-      <c r="Z79" s="33">
+      <c r="Z79" s="26">
         <f t="shared" si="11"/>
         <v>0.36368109743070975</v>
       </c>
@@ -9072,37 +9068,37 @@
       <c r="AC79" s="4"/>
     </row>
     <row r="80" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J80" s="26" t="s">
+      <c r="J80" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K80" s="27">
-        <v>0</v>
-      </c>
-      <c r="L80" s="27">
-        <v>0</v>
-      </c>
-      <c r="M80" s="27">
-        <v>1</v>
-      </c>
-      <c r="N80" s="27">
-        <v>0</v>
-      </c>
-      <c r="O80" s="27">
-        <v>0</v>
-      </c>
-      <c r="P80" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="27">
-        <v>0</v>
-      </c>
-      <c r="R80" s="24">
-        <v>0</v>
-      </c>
-      <c r="S80" s="27">
-        <v>0</v>
-      </c>
-      <c r="T80" s="28">
+      <c r="K80" s="20">
+        <v>0</v>
+      </c>
+      <c r="L80" s="20">
+        <v>0</v>
+      </c>
+      <c r="M80" s="20">
+        <v>1</v>
+      </c>
+      <c r="N80" s="20">
+        <v>0</v>
+      </c>
+      <c r="O80" s="20">
+        <v>0</v>
+      </c>
+      <c r="P80" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="20">
+        <v>0</v>
+      </c>
+      <c r="R80" s="17">
+        <v>0</v>
+      </c>
+      <c r="S80" s="20">
+        <v>0</v>
+      </c>
+      <c r="T80" s="21">
         <v>0</v>
       </c>
       <c r="U80" s="4"/>
@@ -9115,7 +9111,7 @@
         <v>0.67221515308029922</v>
       </c>
       <c r="Y80" s="4"/>
-      <c r="Z80" s="33">
+      <c r="Z80" s="26">
         <f t="shared" si="11"/>
         <v>0.1830272240812516</v>
       </c>
@@ -9127,37 +9123,37 @@
       <c r="AC80" s="4"/>
     </row>
     <row r="81" spans="10:29" x14ac:dyDescent="0.25">
-      <c r="J81" s="26" t="s">
+      <c r="J81" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K81" s="27">
-        <v>0</v>
-      </c>
-      <c r="L81" s="27">
-        <v>0</v>
-      </c>
-      <c r="M81" s="27">
-        <v>1</v>
-      </c>
-      <c r="N81" s="27">
-        <v>1</v>
-      </c>
-      <c r="O81" s="27">
-        <v>0</v>
-      </c>
-      <c r="P81" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="27">
-        <v>0</v>
-      </c>
-      <c r="R81" s="27">
-        <v>0</v>
-      </c>
-      <c r="S81" s="24">
-        <v>0</v>
-      </c>
-      <c r="T81" s="28">
+      <c r="K81" s="20">
+        <v>0</v>
+      </c>
+      <c r="L81" s="20">
+        <v>0</v>
+      </c>
+      <c r="M81" s="20">
+        <v>1</v>
+      </c>
+      <c r="N81" s="20">
+        <v>1</v>
+      </c>
+      <c r="O81" s="20">
+        <v>0</v>
+      </c>
+      <c r="P81" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="20">
+        <v>0</v>
+      </c>
+      <c r="R81" s="20">
+        <v>0</v>
+      </c>
+      <c r="S81" s="17">
+        <v>0</v>
+      </c>
+      <c r="T81" s="21">
         <v>0</v>
       </c>
       <c r="U81" s="4"/>
@@ -9170,7 +9166,7 @@
         <v>0.88603187225229374</v>
       </c>
       <c r="Y81" s="4"/>
-      <c r="Z81" s="33">
+      <c r="Z81" s="26">
         <f t="shared" si="11"/>
         <v>0.2412441214434804</v>
       </c>
@@ -9182,37 +9178,37 @@
       <c r="AC81" s="4"/>
     </row>
     <row r="82" spans="10:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J82" s="29" t="s">
+      <c r="J82" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K82" s="30">
-        <v>0</v>
-      </c>
-      <c r="L82" s="30">
-        <v>0</v>
-      </c>
-      <c r="M82" s="30">
-        <v>1</v>
-      </c>
-      <c r="N82" s="30">
-        <v>0</v>
-      </c>
-      <c r="O82" s="30">
-        <v>0</v>
-      </c>
-      <c r="P82" s="30">
-        <v>1</v>
-      </c>
-      <c r="Q82" s="30">
-        <v>1</v>
-      </c>
-      <c r="R82" s="30">
-        <v>0</v>
-      </c>
-      <c r="S82" s="30">
-        <v>0</v>
-      </c>
-      <c r="T82" s="31">
+      <c r="K82" s="23">
+        <v>0</v>
+      </c>
+      <c r="L82" s="23">
+        <v>0</v>
+      </c>
+      <c r="M82" s="23">
+        <v>1</v>
+      </c>
+      <c r="N82" s="23">
+        <v>0</v>
+      </c>
+      <c r="O82" s="23">
+        <v>0</v>
+      </c>
+      <c r="P82" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="23">
+        <v>1</v>
+      </c>
+      <c r="R82" s="23">
+        <v>0</v>
+      </c>
+      <c r="S82" s="23">
+        <v>0</v>
+      </c>
+      <c r="T82" s="24">
         <v>0</v>
       </c>
       <c r="U82" s="4"/>
@@ -9225,7 +9221,7 @@
         <v>1.2521353194676512</v>
       </c>
       <c r="Y82" s="4"/>
-      <c r="Z82" s="33">
+      <c r="Z82" s="26">
         <f t="shared" si="11"/>
         <v>0.34092485217880736</v>
       </c>
@@ -9293,7 +9289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F200197-C009-4DC9-A6A6-ED602FDD28AC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
